--- a/ref/Mod_Planing.xlsx
+++ b/ref/Mod_Planing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\bg3\UnpackedMods\# Working_space\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ellom\working\elmods\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056A4901-1CC0-4D00-AE76-DDE8F24D6155}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CAD310-F7AB-49FD-BABB-DB6000B0CC78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9128" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9126" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_idea" sheetId="4" r:id="rId1"/>
@@ -771,16 +771,6 @@
   </si>
   <si>
     <t>Aqua Hatia</t>
-  </si>
-  <si>
-    <t>◆+3 / magical
-◆Arcane Enchantment+3*
-◆
-◆
-◆
-◆
-◆
-◆</t>
   </si>
   <si>
     <t>MAG_Hat_Barbarian_Hide</t>
@@ -1715,13 +1705,6 @@
 ◆Dauntless*: Immune to frightened &amp; other emotion atk
 ◆Gain Dark Vision &amp; See Magical Darkness</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>◆Int, Wis &amp; Cha + 2
-◆Spell DC +1 &amp; Saving Throw + 2
-◆Dauntless*: Immune to frightened &amp; other emotion atk
-◆Gain Advantage &amp; +2 on Concentration, Religion, Arcana Check</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1846,7 +1829,26 @@
         <charset val="136"/>
       </rPr>
       <t xml:space="preserve">
-◆Bone Ward (Bonus Action): Reduce Movement Speed to 0 to get DR(2) &amp; AC+ 3 for 1 turn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Bone Ward (Bonus Action): Reduce Movement Speed to 0 to get DR(2) &amp; AC+ 3 for 1 turn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -1878,6 +1880,93 @@
         <charset val="136"/>
       </rPr>
       <t xml:space="preserve">◆Immune to Tag(ACT2_SHADOW_CURSE_IMMUNE), Acid Surface, </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◆+3 / magical
+◆Arcane Enchantment+3*
+◆
+◆
+◆
+◆
+◆
+◆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Int, Wis &amp; Cha + 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Spell DC +1 &amp; Saving Throw + 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Dauntless*: Immune to frightened &amp; other emotion atk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Gain Advantage &amp; +2 on Concentration, Religion, Arcana Check</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2350,16 +2439,16 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.2109375" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="25.41015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.234375" customWidth="1"/>
+    <col min="3" max="3" width="27.41015625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.29296875" customWidth="1"/>
+    <col min="5" max="5" width="25.46875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -2376,7 +2465,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="39.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="38.700000000000003" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
         <v>51</v>
       </c>
@@ -2393,7 +2482,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
         <v>59</v>
       </c>
@@ -2408,7 +2497,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>62</v>
       </c>
@@ -2421,7 +2510,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7" t="s">
         <v>63</v>
       </c>
@@ -2434,14 +2523,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="39.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="38.700000000000003" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6" t="s">
         <v>55</v>
       </c>
@@ -2456,7 +2545,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6" t="s">
         <v>58</v>
       </c>
@@ -2471,7 +2560,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="39.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="38.700000000000003" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6" t="s">
         <v>86</v>
       </c>
@@ -2484,85 +2573,85 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2586,12 +2675,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="4" width="32.640625" customWidth="1"/>
+    <col min="2" max="4" width="32.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2606,7 +2695,7 @@
       </c>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="46.15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="45.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2620,7 +2709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="46.15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="45.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2634,7 +2723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="76.900000000000006" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="122.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2646,7 +2735,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="46.15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="45.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2660,7 +2749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="30.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2672,7 +2761,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="61.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="61.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2684,7 +2773,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2696,7 +2785,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2708,7 +2797,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="30.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2720,7 +2809,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2732,7 +2821,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2744,7 +2833,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="30.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2756,43 +2845,43 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2813,62 +2902,62 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.92578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.640625" customWidth="1"/>
-    <col min="4" max="4" width="45.640625" customWidth="1"/>
-    <col min="5" max="6" width="15.640625" customWidth="1"/>
+    <col min="1" max="1" width="5.9375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.64453125" customWidth="1"/>
+    <col min="4" max="4" width="45.64453125" customWidth="1"/>
+    <col min="5" max="6" width="15.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>323</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>324</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="41.65" x14ac:dyDescent="0.45">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="38.700000000000003" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>338</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -2886,179 +2975,179 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.640625" customWidth="1"/>
-    <col min="4" max="4" width="45.640625" customWidth="1"/>
+    <col min="1" max="1" width="6.64453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.64453125" customWidth="1"/>
+    <col min="4" max="4" width="45.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>344</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>345</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="17" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="17" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="16"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="16"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="16"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="16"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="16"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="16"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="16"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="16"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="16"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="16"/>
@@ -3075,23 +3164,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDDAE1E-F5BF-4602-8425-1D677DF0A8E1}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.640625" customWidth="1"/>
-    <col min="2" max="2" width="15.640625" customWidth="1"/>
-    <col min="3" max="3" width="35.640625" customWidth="1"/>
-    <col min="4" max="4" width="8.640625" customWidth="1"/>
-    <col min="5" max="5" width="15.640625" customWidth="1"/>
-    <col min="6" max="6" width="8.640625" customWidth="1"/>
-    <col min="7" max="7" width="60.640625" customWidth="1"/>
-    <col min="8" max="9" width="40.640625" customWidth="1"/>
+    <col min="1" max="1" width="10.64453125" customWidth="1"/>
+    <col min="2" max="2" width="15.64453125" customWidth="1"/>
+    <col min="3" max="3" width="35.64453125" customWidth="1"/>
+    <col min="4" max="4" width="8.64453125" customWidth="1"/>
+    <col min="5" max="5" width="15.64453125" customWidth="1"/>
+    <col min="6" max="6" width="8.64453125" customWidth="1"/>
+    <col min="7" max="7" width="60.64453125" customWidth="1"/>
+    <col min="8" max="9" width="40.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3102,13 +3191,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -3120,7 +3209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>111</v>
       </c>
@@ -3132,16 +3221,16 @@
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
         <v>119</v>
       </c>
@@ -3156,13 +3245,13 @@
         <v>122</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
         <v>125</v>
       </c>
@@ -3177,13 +3266,13 @@
         <v>106</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
         <v>129</v>
       </c>
@@ -3195,21 +3284,21 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
         <v>141</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -3219,7 +3308,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
         <v>142</v>
       </c>
@@ -3227,20 +3316,20 @@
         <v>153</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>154</v>
+        <v>368</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -3266,19 +3355,19 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.640625" customWidth="1"/>
-    <col min="2" max="2" width="15.640625" customWidth="1"/>
-    <col min="3" max="3" width="35.640625" customWidth="1"/>
-    <col min="4" max="4" width="8.640625" customWidth="1"/>
-    <col min="5" max="5" width="15.640625" customWidth="1"/>
-    <col min="6" max="6" width="8.640625" customWidth="1"/>
-    <col min="7" max="7" width="60.640625" customWidth="1"/>
-    <col min="8" max="9" width="40.640625" customWidth="1"/>
+    <col min="1" max="1" width="10.64453125" customWidth="1"/>
+    <col min="2" max="2" width="15.64453125" customWidth="1"/>
+    <col min="3" max="3" width="35.64453125" customWidth="1"/>
+    <col min="4" max="4" width="8.64453125" customWidth="1"/>
+    <col min="5" max="5" width="15.64453125" customWidth="1"/>
+    <col min="6" max="6" width="8.64453125" customWidth="1"/>
+    <col min="7" max="7" width="60.64453125" customWidth="1"/>
+    <col min="8" max="9" width="40.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3289,13 +3378,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -3307,35 +3396,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>44</v>
@@ -3345,18 +3434,18 @@
         <v>32</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="116.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>77</v>
@@ -3366,18 +3455,18 @@
         <v>36</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="105" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>78</v>
@@ -3387,18 +3476,18 @@
         <v>36</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>45</v>
@@ -3408,18 +3497,18 @@
         <v>41</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>72</v>
@@ -3429,18 +3518,18 @@
         <v>42</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>76</v>
@@ -3450,18 +3539,18 @@
         <v>73</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="91.9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="90.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>83</v>
@@ -3471,15 +3560,15 @@
         <v>38</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.45">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>82</v>
@@ -3489,15 +3578,15 @@
         <v>37</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>84</v>
@@ -3507,15 +3596,15 @@
         <v>40</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="116.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>81</v>
@@ -3525,15 +3614,15 @@
         <v>39</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="91.9" x14ac:dyDescent="0.45">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="90.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>80</v>
@@ -3543,15 +3632,15 @@
         <v>85</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.45">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
         <v>125</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>126</v>
@@ -3561,15 +3650,15 @@
         <v>127</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.45">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>87</v>
@@ -3579,15 +3668,15 @@
         <v>91</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>128</v>
@@ -3597,15 +3686,15 @@
         <v>89</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="91.9" x14ac:dyDescent="0.45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="90.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>88</v>
@@ -3615,15 +3704,15 @@
         <v>90</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>75</v>
@@ -3633,82 +3722,82 @@
         <v>74</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
         <v>129</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="91.9" x14ac:dyDescent="0.45">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="90.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
         <v>129</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
         <v>129</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
         <v>129</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
         <v>129</v>
       </c>
@@ -3716,17 +3805,17 @@
         <v>131</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="118.15" x14ac:dyDescent="0.45">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="116.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
         <v>142</v>
       </c>
@@ -3741,7 +3830,7 @@
         <v>145</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3755,23 +3844,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE404FD-ED0E-4839-AB3C-E49A1E70FD14}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.640625" customWidth="1"/>
-    <col min="2" max="2" width="15.640625" customWidth="1"/>
-    <col min="3" max="3" width="35.640625" customWidth="1"/>
-    <col min="4" max="4" width="8.640625" customWidth="1"/>
-    <col min="5" max="5" width="15.640625" customWidth="1"/>
-    <col min="6" max="6" width="8.640625" customWidth="1"/>
-    <col min="7" max="7" width="60.640625" customWidth="1"/>
-    <col min="8" max="9" width="40.640625" customWidth="1"/>
+    <col min="1" max="1" width="10.64453125" customWidth="1"/>
+    <col min="2" max="2" width="15.64453125" customWidth="1"/>
+    <col min="3" max="3" width="35.64453125" customWidth="1"/>
+    <col min="4" max="4" width="8.64453125" customWidth="1"/>
+    <col min="5" max="5" width="15.64453125" customWidth="1"/>
+    <col min="6" max="6" width="8.64453125" customWidth="1"/>
+    <col min="7" max="7" width="60.64453125" customWidth="1"/>
+    <col min="8" max="9" width="40.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3782,13 +3871,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -3800,7 +3889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="116.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>111</v>
       </c>
@@ -3808,22 +3897,22 @@
         <v>114</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>219</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
         <v>119</v>
       </c>
@@ -3831,22 +3920,22 @@
         <v>123</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
         <v>125</v>
       </c>
@@ -3854,10 +3943,10 @@
         <v>109</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -3865,15 +3954,15 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>328</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -3882,15 +3971,15 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="51.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>333</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>334</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -3899,7 +3988,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="116.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
         <v>148</v>
       </c>
@@ -3911,16 +4000,16 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="116.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
         <v>142</v>
       </c>
@@ -3932,16 +4021,16 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>225</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3952,7 +4041,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3960,7 +4049,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -3968,7 +4057,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -3991,19 +4080,19 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.640625" customWidth="1"/>
-    <col min="2" max="2" width="15.640625" customWidth="1"/>
-    <col min="3" max="3" width="35.640625" customWidth="1"/>
-    <col min="4" max="4" width="8.640625" customWidth="1"/>
-    <col min="5" max="5" width="15.640625" customWidth="1"/>
-    <col min="6" max="6" width="8.640625" customWidth="1"/>
-    <col min="7" max="7" width="60.640625" customWidth="1"/>
-    <col min="8" max="9" width="40.640625" customWidth="1"/>
+    <col min="1" max="1" width="10.64453125" customWidth="1"/>
+    <col min="2" max="2" width="15.64453125" customWidth="1"/>
+    <col min="3" max="3" width="35.64453125" customWidth="1"/>
+    <col min="4" max="4" width="8.64453125" customWidth="1"/>
+    <col min="5" max="5" width="15.64453125" customWidth="1"/>
+    <col min="6" max="6" width="8.64453125" customWidth="1"/>
+    <col min="7" max="7" width="60.64453125" customWidth="1"/>
+    <col min="8" max="9" width="40.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4014,13 +4103,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -4032,7 +4121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="116.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>111</v>
       </c>
@@ -4044,16 +4133,16 @@
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="90.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
         <v>111</v>
       </c>
@@ -4065,79 +4154,79 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>229</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="144.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="141.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>110</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
         <v>124</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="116.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
         <v>125</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>316</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>317</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
         <v>129</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="196.9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="193.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
         <v>31</v>
       </c>
@@ -4145,14 +4234,14 @@
         <v>132</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
         <v>94</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>133</v>
@@ -4160,33 +4249,33 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="144.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="154.80000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
         <v>95</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>134</v>
@@ -4196,13 +4285,13 @@
         <v>97</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
         <v>31</v>
       </c>
@@ -4210,20 +4299,20 @@
         <v>135</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
         <v>98</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
         <v>31</v>
       </c>
@@ -4238,13 +4327,13 @@
         <v>99</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="144.4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="141.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
         <v>31</v>
       </c>
@@ -4252,25 +4341,25 @@
         <v>138</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
         <v>96</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="144.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="141.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>139</v>
@@ -4280,18 +4369,18 @@
         <v>101</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="170.65" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="167.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>140</v>
@@ -4301,13 +4390,13 @@
         <v>100</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="196.9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="206.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
         <v>93</v>
       </c>
@@ -4315,20 +4404,20 @@
         <v>146</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
         <v>103</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
         <v>93</v>
       </c>
@@ -4343,13 +4432,13 @@
         <v>102</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -4375,613 +4464,613 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.0703125" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.41015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.05859375" customWidth="1"/>
+    <col min="3" max="3" width="32.703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.41015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" ht="30.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:4" ht="30.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>267</v>
-      </c>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A6" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A8" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
-      <c r="A9" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>268</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D10" s="12"/>
     </row>
-    <row r="11" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D11" s="12"/>
     </row>
-    <row r="12" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D12" s="12"/>
     </row>
-    <row r="13" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="D15" s="12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D16" s="12" t="s">
+    <row r="17" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D17" s="12"/>
     </row>
-    <row r="18" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D18" s="12"/>
     </row>
-    <row r="19" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="30.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="15" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A28" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D28" s="12"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A29" s="13" t="s">
+      <c r="B29" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="13" t="s">
         <v>275</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D29" s="12"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A30" s="13" t="s">
-        <v>276</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="13" t="s">
         <v>254</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D35" s="12"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A36" s="13" t="s">
-        <v>255</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D42" s="12"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D43" s="12"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="13" t="s">
         <v>265</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D42" s="12"/>
-    </row>
-    <row r="43" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A43" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D43" s="12"/>
-    </row>
-    <row r="44" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A44" s="13" t="s">
-        <v>266</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" ht="30.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="30.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="13" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
-      <c r="A46" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A47" s="13" t="s">
-        <v>307</v>
-      </c>
       <c r="B47" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D47" s="12"/>
     </row>
-    <row r="48" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="12"/>
     </row>
-    <row r="49" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="13" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A50" s="13" t="s">
-        <v>296</v>
-      </c>
       <c r="B50" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="12" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="12"/>
     </row>
-    <row r="52" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="13"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="12"/>
     </row>
-    <row r="53" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="13"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="12"/>
     </row>
-    <row r="54" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="13"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="12"/>
     </row>
-    <row r="55" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="13"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="12"/>
     </row>
-    <row r="56" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="13"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="12"/>
     </row>
-    <row r="57" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="13"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="12"/>
     </row>
-    <row r="58" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="13"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>

--- a/ref/Mod_Planing.xlsx
+++ b/ref/Mod_Planing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ellom\working\elmods\ref\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\elmods\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CAD310-F7AB-49FD-BABB-DB6000B0CC78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D610A0A-4216-4CE0-AE29-C9E7B780CDD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9126" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9128" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_idea" sheetId="4" r:id="rId1"/>
@@ -749,15 +749,6 @@
     <t>Dread King</t>
   </si>
   <si>
-    <t>◆+3 / magical
-◆Arcane Enchantment+3*
-◆When dealing Necrotic Dmg, the wielder deals an additional 1d4 Necrotic Dmg.
-◆Heightened Necromancy*
-◆Life Essence Harvest*
-◆Melee Caster*
-◆Gain Spell: Dethrone</t>
-  </si>
-  <si>
     <t>Lich King</t>
   </si>
   <si>
@@ -1542,13 +1533,6 @@
   </si>
   <si>
     <t>The Grave Shround</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>◆Gain Resistance to Radiant Dmg
-◆Immune to Necrotic &amp; Phychic Dmg
-◆Immune to Sunlight Hypersensitivity
-◆Gain Spell: Shield</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1967,6 +1951,42 @@
         <charset val="136"/>
       </rPr>
       <t>◆Gain Advantage &amp; +2 on Concentration, Religion, Arcana Check</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◆Gain Resistance to Radiant Dmg
+◆Immune to Necrotic &amp; Phychic Dmg
+◆Immune to Sunlight Hypersensitivity
+◆Gain Spell: Shield (per short rest)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">◆+3 / magical
+◆Arcane Enchantment+3*
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆When dealing Necrotic Dmg, the wielder deals an additional 1d4 Necrotic Dmg.
+◆Heightened Necromancy*
+◆Life Essence Harvest*
+◆Melee Caster*
+◆Gain Spell: Dethrone</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2439,16 +2459,16 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.41015625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.234375" customWidth="1"/>
-    <col min="3" max="3" width="27.41015625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.29296875" customWidth="1"/>
-    <col min="5" max="5" width="25.46875" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.2109375" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -2465,7 +2485,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="38.700000000000003" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>51</v>
       </c>
@@ -2482,7 +2502,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>59</v>
       </c>
@@ -2497,7 +2517,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>62</v>
       </c>
@@ -2510,7 +2530,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>63</v>
       </c>
@@ -2523,14 +2543,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="38.700000000000003" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>55</v>
       </c>
@@ -2545,7 +2565,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>58</v>
       </c>
@@ -2560,7 +2580,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="38.700000000000003" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>86</v>
       </c>
@@ -2573,85 +2593,85 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2675,12 +2695,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="4" width="32.64453125" customWidth="1"/>
+    <col min="2" max="4" width="32.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2695,7 +2715,7 @@
       </c>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="45.9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" ht="46.15" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2709,7 +2729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45.9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" ht="46.15" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2723,7 +2743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="122.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" ht="76.900000000000006" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2735,7 +2755,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="45.9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" ht="46.15" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2749,7 +2769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2761,7 +2781,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="61.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" ht="61.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2773,7 +2793,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2785,7 +2805,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2797,7 +2817,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="30.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2809,7 +2829,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2821,7 +2841,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2833,7 +2853,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="30.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2845,43 +2865,43 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2902,62 +2922,62 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.9375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.64453125" customWidth="1"/>
-    <col min="4" max="4" width="45.64453125" customWidth="1"/>
-    <col min="5" max="6" width="15.64453125" customWidth="1"/>
+    <col min="1" max="1" width="5.92578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.640625" customWidth="1"/>
+    <col min="4" max="4" width="45.640625" customWidth="1"/>
+    <col min="5" max="6" width="15.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>322</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>323</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="38.700000000000003" x14ac:dyDescent="0.55000000000000004">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="41.65" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="18" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E2" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>336</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -2975,179 +2995,179 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.64453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.64453125" customWidth="1"/>
-    <col min="4" max="4" width="45.64453125" customWidth="1"/>
+    <col min="1" max="1" width="6.640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.640625" customWidth="1"/>
+    <col min="4" max="4" width="45.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="17" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="16"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="16"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="16"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="16"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="16"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="16"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="16"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="16"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="16"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="16"/>
@@ -3168,19 +3188,19 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.64453125" customWidth="1"/>
-    <col min="2" max="2" width="15.64453125" customWidth="1"/>
-    <col min="3" max="3" width="35.64453125" customWidth="1"/>
-    <col min="4" max="4" width="8.64453125" customWidth="1"/>
-    <col min="5" max="5" width="15.64453125" customWidth="1"/>
-    <col min="6" max="6" width="8.64453125" customWidth="1"/>
-    <col min="7" max="7" width="60.64453125" customWidth="1"/>
-    <col min="8" max="9" width="40.64453125" customWidth="1"/>
+    <col min="1" max="1" width="10.640625" customWidth="1"/>
+    <col min="2" max="2" width="15.640625" customWidth="1"/>
+    <col min="3" max="3" width="35.640625" customWidth="1"/>
+    <col min="4" max="4" width="8.640625" customWidth="1"/>
+    <col min="5" max="5" width="15.640625" customWidth="1"/>
+    <col min="6" max="6" width="8.640625" customWidth="1"/>
+    <col min="7" max="7" width="60.640625" customWidth="1"/>
+    <col min="8" max="9" width="40.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3191,13 +3211,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -3209,7 +3229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>111</v>
       </c>
@@ -3221,16 +3241,16 @@
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>211</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>119</v>
       </c>
@@ -3245,13 +3265,13 @@
         <v>122</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>125</v>
       </c>
@@ -3266,13 +3286,13 @@
         <v>106</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>129</v>
       </c>
@@ -3284,21 +3304,21 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>141</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -3308,28 +3328,28 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>142</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="10"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -3355,19 +3375,19 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.64453125" customWidth="1"/>
-    <col min="2" max="2" width="15.64453125" customWidth="1"/>
-    <col min="3" max="3" width="35.64453125" customWidth="1"/>
-    <col min="4" max="4" width="8.64453125" customWidth="1"/>
-    <col min="5" max="5" width="15.64453125" customWidth="1"/>
-    <col min="6" max="6" width="8.64453125" customWidth="1"/>
-    <col min="7" max="7" width="60.64453125" customWidth="1"/>
-    <col min="8" max="9" width="40.64453125" customWidth="1"/>
+    <col min="1" max="1" width="10.640625" customWidth="1"/>
+    <col min="2" max="2" width="15.640625" customWidth="1"/>
+    <col min="3" max="3" width="35.640625" customWidth="1"/>
+    <col min="4" max="4" width="8.640625" customWidth="1"/>
+    <col min="5" max="5" width="15.640625" customWidth="1"/>
+    <col min="6" max="6" width="8.640625" customWidth="1"/>
+    <col min="7" max="7" width="60.640625" customWidth="1"/>
+    <col min="8" max="9" width="40.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3378,13 +3398,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -3396,35 +3416,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>44</v>
@@ -3434,18 +3454,18 @@
         <v>32</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="116.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>77</v>
@@ -3455,18 +3475,18 @@
         <v>36</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>78</v>
@@ -3476,18 +3496,18 @@
         <v>36</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>45</v>
@@ -3497,18 +3517,18 @@
         <v>41</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>72</v>
@@ -3518,18 +3538,18 @@
         <v>42</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>76</v>
@@ -3539,18 +3559,18 @@
         <v>73</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="90.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" ht="91.9" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>83</v>
@@ -3560,15 +3580,15 @@
         <v>38</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A10" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>82</v>
@@ -3578,15 +3598,15 @@
         <v>37</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>84</v>
@@ -3596,15 +3616,15 @@
         <v>40</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="116.1" x14ac:dyDescent="0.55000000000000004">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>81</v>
@@ -3614,15 +3634,15 @@
         <v>39</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="90.3" x14ac:dyDescent="0.55000000000000004">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="91.9" x14ac:dyDescent="0.45">
       <c r="A13" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>80</v>
@@ -3632,15 +3652,15 @@
         <v>85</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
         <v>125</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>126</v>
@@ -3650,15 +3670,15 @@
         <v>127</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>87</v>
@@ -3668,15 +3688,15 @@
         <v>91</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A16" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>128</v>
@@ -3686,15 +3706,15 @@
         <v>89</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="90.3" x14ac:dyDescent="0.55000000000000004">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="91.9" x14ac:dyDescent="0.45">
       <c r="A17" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>88</v>
@@ -3704,15 +3724,15 @@
         <v>90</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A18" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>75</v>
@@ -3722,82 +3742,82 @@
         <v>74</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
         <v>129</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
         <v>130</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="90.3" x14ac:dyDescent="0.55000000000000004">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="91.9" x14ac:dyDescent="0.45">
       <c r="A20" s="10" t="s">
         <v>129</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A21" s="10" t="s">
         <v>129</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A22" s="10" t="s">
         <v>129</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A23" s="10" t="s">
         <v>129</v>
       </c>
@@ -3805,17 +3825,17 @@
         <v>131</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="116.1" x14ac:dyDescent="0.55000000000000004">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A24" s="10" t="s">
         <v>142</v>
       </c>
@@ -3830,7 +3850,7 @@
         <v>145</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3844,23 +3864,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE404FD-ED0E-4839-AB3C-E49A1E70FD14}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.64453125" customWidth="1"/>
-    <col min="2" max="2" width="15.64453125" customWidth="1"/>
-    <col min="3" max="3" width="35.64453125" customWidth="1"/>
-    <col min="4" max="4" width="8.64453125" customWidth="1"/>
-    <col min="5" max="5" width="15.64453125" customWidth="1"/>
-    <col min="6" max="6" width="8.64453125" customWidth="1"/>
-    <col min="7" max="7" width="60.64453125" customWidth="1"/>
-    <col min="8" max="9" width="40.64453125" customWidth="1"/>
+    <col min="1" max="1" width="10.640625" customWidth="1"/>
+    <col min="2" max="2" width="15.640625" customWidth="1"/>
+    <col min="3" max="3" width="35.640625" customWidth="1"/>
+    <col min="4" max="4" width="8.640625" customWidth="1"/>
+    <col min="5" max="5" width="15.640625" customWidth="1"/>
+    <col min="6" max="6" width="8.640625" customWidth="1"/>
+    <col min="7" max="7" width="60.640625" customWidth="1"/>
+    <col min="8" max="9" width="40.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3871,13 +3891,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -3889,7 +3909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="116.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>111</v>
       </c>
@@ -3897,22 +3917,22 @@
         <v>114</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>218</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>119</v>
       </c>
@@ -3920,22 +3940,22 @@
         <v>123</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>125</v>
       </c>
@@ -3943,10 +3963,10 @@
         <v>109</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -3954,15 +3974,15 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>327</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -3971,15 +3991,15 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="51.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>333</v>
+      <c r="C6" s="20" t="s">
+        <v>368</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -3988,7 +4008,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="116.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>148</v>
       </c>
@@ -3996,41 +4016,41 @@
         <v>149</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>150</v>
+        <v>369</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>222</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="116.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>142</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="10"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -4041,7 +4061,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="10"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -4049,7 +4069,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="10"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -4057,7 +4077,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="10"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -4080,19 +4100,19 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.64453125" customWidth="1"/>
-    <col min="2" max="2" width="15.64453125" customWidth="1"/>
-    <col min="3" max="3" width="35.64453125" customWidth="1"/>
-    <col min="4" max="4" width="8.64453125" customWidth="1"/>
-    <col min="5" max="5" width="15.64453125" customWidth="1"/>
-    <col min="6" max="6" width="8.64453125" customWidth="1"/>
-    <col min="7" max="7" width="60.64453125" customWidth="1"/>
-    <col min="8" max="9" width="40.64453125" customWidth="1"/>
+    <col min="1" max="1" width="10.640625" customWidth="1"/>
+    <col min="2" max="2" width="15.640625" customWidth="1"/>
+    <col min="3" max="3" width="35.640625" customWidth="1"/>
+    <col min="4" max="4" width="8.640625" customWidth="1"/>
+    <col min="5" max="5" width="15.640625" customWidth="1"/>
+    <col min="6" max="6" width="8.640625" customWidth="1"/>
+    <col min="7" max="7" width="60.640625" customWidth="1"/>
+    <col min="8" max="9" width="40.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4103,13 +4123,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -4121,7 +4141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="116.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>111</v>
       </c>
@@ -4133,16 +4153,16 @@
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="90.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>111</v>
       </c>
@@ -4154,79 +4174,79 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="141.9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" ht="144.4" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>110</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
         <v>124</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="116.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>125</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>315</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>129</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="193.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="196.9" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>31</v>
       </c>
@@ -4234,14 +4254,14 @@
         <v>132</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
         <v>94</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>133</v>
@@ -4249,33 +4269,33 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="154.80000000000001" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="144.4" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
         <v>95</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>134</v>
@@ -4285,13 +4305,13 @@
         <v>97</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A10" s="10" t="s">
         <v>31</v>
       </c>
@@ -4299,20 +4319,20 @@
         <v>135</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
         <v>98</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="s">
         <v>31</v>
       </c>
@@ -4327,13 +4347,13 @@
         <v>99</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="141.9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" ht="144.4" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="s">
         <v>31</v>
       </c>
@@ -4341,25 +4361,25 @@
         <v>138</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
         <v>96</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="141.9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" ht="144.4" x14ac:dyDescent="0.45">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>139</v>
@@ -4369,18 +4389,18 @@
         <v>101</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="167.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" ht="170.65" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>140</v>
@@ -4390,13 +4410,13 @@
         <v>100</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="206.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" ht="196.9" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="s">
         <v>93</v>
       </c>
@@ -4404,20 +4424,20 @@
         <v>146</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
         <v>103</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A16" s="10" t="s">
         <v>93</v>
       </c>
@@ -4432,13 +4452,13 @@
         <v>102</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="10"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -4464,613 +4484,613 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.41015625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.05859375" customWidth="1"/>
-    <col min="3" max="3" width="32.703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.41015625" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.0703125" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A6" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
+      <c r="A7" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A8" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
+      <c r="A9" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>266</v>
-      </c>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:4" ht="30.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:4" ht="30.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>267</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D10" s="12"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A11" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D11" s="12"/>
     </row>
-    <row r="12" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D12" s="12"/>
     </row>
-    <row r="13" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="D15" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D16" s="12" t="s">
+    <row r="17" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D17" s="12"/>
     </row>
-    <row r="18" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D18" s="12"/>
     </row>
-    <row r="19" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="21" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:4" ht="30.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A28" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A29" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D28" s="12"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="13" t="s">
+      <c r="B29" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A30" s="13" t="s">
         <v>274</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D29" s="12"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="13" t="s">
-        <v>275</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A35" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A36" s="13" t="s">
         <v>253</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D35" s="12"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="13" t="s">
-        <v>254</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A37" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A38" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A39" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A40" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A41" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A42" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D42" s="12"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A43" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D43" s="12"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A44" s="13" t="s">
         <v>264</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D42" s="12"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D43" s="12"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="13" t="s">
-        <v>265</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:4" ht="30.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A45" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
+      <c r="A46" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A47" s="13" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="30.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="13" t="s">
-        <v>306</v>
-      </c>
       <c r="B47" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D47" s="12"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A48" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="12"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A49" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A50" s="13" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="13" t="s">
-        <v>295</v>
-      </c>
       <c r="B50" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="12" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A51" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="12"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A52" s="13"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="12"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A53" s="13"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="12"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A54" s="13"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="12"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A55" s="13"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="12"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A56" s="13"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="12"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A57" s="13"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="12"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A58" s="13"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>

--- a/ref/Mod_Planing.xlsx
+++ b/ref/Mod_Planing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\elmods\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D610A0A-4216-4CE0-AE29-C9E7B780CDD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87264BA9-692B-46E4-941A-72DC275D1A20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9128" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9128" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_idea" sheetId="4" r:id="rId1"/>
@@ -216,24 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>◆extra 1d10 Force Dmg w/ Unarmed
-◆Imp Critical w/ Unarmed
-◆+3 on Atk Rolls w/ Unarmed
-◆Soul Catching
-◆On melee hit, Inflict Off Balance til end of turn
-◆Ki-Blast: Consume 1 Ki to blast force dmg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>◆extra 1d10 Piercing Dmg w/ Unarmed
-◆Imp Critical w/ Unarmed
-◆+3 on Atk Rolls w/ Unarmed
-◆On melee hit, Inflict Bleed for 2 turns
-◆Gain advantage against Bleeding creatures.
-◆Consume 1 Ki to create piercing vulnerability for 3 rounds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>◆extra 1d6 Fire Dmg on melee
 ◆extra 1d4 Fire Dmg when u deal fire dmg
 ◆On melee hit, Inflict Burning for 2 turns
@@ -752,15 +734,6 @@
     <t>Lich King</t>
   </si>
   <si>
-    <t>◆+3 / magical
-◆Arcane Enchantment+3*
-◆When dealing Necrotic Dmg, the wielder deals an additional 1d4 Necrotic Dmg.
-◆Heightened Necromancy*
-◆Arcane Vampirism*
-◆AC+1
-◆Gain Spell: Harm</t>
-  </si>
-  <si>
     <t>Aqua Hatia</t>
   </si>
   <si>
@@ -1970,9 +1943,9 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">◆+3 / magical
+      <t>◆+3 / magical
 ◆Arcane Enchantment+3*
-</t>
+◆When dealing Necrotic Dmg, the wielder deals an additional 1d4 Necrotic Dmg.</t>
     </r>
     <r>
       <rPr>
@@ -1982,11 +1955,286 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>◆When dealing Necrotic Dmg, the wielder deals an additional 1d4 Necrotic Dmg.
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Heightened Necromancy*
+◆Life Essence Harvest*
+◆Melee Caster*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Gain Spell: Dethrone</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆+3 / magical
+◆Arcane Enchantment+3*
+◆When dealing Necrotic Dmg, the wielder deals an additional 1d4 Necrotic Dmg.
 ◆Heightened Necromancy*
-◆Life Essence Harvest*
-◆Melee Caster*
-◆Gain Spell: Dethrone</t>
+◆Arcane Vampirism*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆AC+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Gain Spell: Harm</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆extra 1d10 Force Dmg w/ Unarmed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Imp Critical w/ Unarmed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆+3 on Atk Rolls w/ Unarmed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Soul Catching</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆On melee hit, Inflict Off Balance til end of turn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Ki-Blast: Consume 1 Ki to blast force dmg</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆extra 1d10 Piercing Dmg w/ Unarmed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Imp Critical w/ Unarmed
+◆+3 on Atk Rolls w/ Unarmed
+◆On melee hit, Inflict Bleed for 2 turns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Gain advantage against Bleeding creatures.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+◆Consume 1 Ki to create piercing vulnerability for 3 rounds</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2470,77 +2718,77 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -2552,44 +2800,44 @@
     </row>
     <row r="7" spans="1:5" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E9" s="5"/>
     </row>
@@ -2933,51 +3181,51 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="41.65" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="18" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -3005,112 +3253,112 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="17" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="17" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="17" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -3211,13 +3459,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -3231,20 +3479,20 @@
     </row>
     <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -3252,20 +3500,20 @@
     </row>
     <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -3273,20 +3521,20 @@
     </row>
     <row r="4" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -3294,20 +3542,20 @@
     </row>
     <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -3315,10 +3563,10 @@
     </row>
     <row r="6" spans="1:9" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -3330,20 +3578,20 @@
     </row>
     <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -3371,8 +3619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8F341F-A795-46C8-A6FF-1FA6ADED9C7D}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -3398,13 +3646,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -3421,19 +3669,19 @@
         <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>43</v>
+        <v>368</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -3444,17 +3692,17 @@
         <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>44</v>
+        <v>369</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -3465,17 +3713,17 @@
         <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -3486,17 +3734,17 @@
         <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -3507,17 +3755,17 @@
         <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -3528,17 +3776,17 @@
         <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -3549,17 +3797,17 @@
         <v>30</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -3570,17 +3818,17 @@
         <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.45">
@@ -3588,17 +3836,17 @@
         <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
@@ -3606,17 +3854,17 @@
         <v>35</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
@@ -3624,17 +3872,17 @@
         <v>35</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="91.9" x14ac:dyDescent="0.45">
@@ -3642,35 +3890,35 @@
         <v>35</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.45">
@@ -3678,17 +3926,17 @@
         <v>33</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
@@ -3696,17 +3944,17 @@
         <v>33</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="91.9" x14ac:dyDescent="0.45">
@@ -3714,17 +3962,17 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
@@ -3732,125 +3980,125 @@
         <v>33</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="91.9" x14ac:dyDescent="0.45">
       <c r="A20" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A21" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A22" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A23" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="C23" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A24" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3864,8 +4112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE404FD-ED0E-4839-AB3C-E49A1E70FD14}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -3891,13 +4139,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -3911,22 +4159,22 @@
     </row>
     <row r="2" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -3934,22 +4182,22 @@
     </row>
     <row r="3" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -3957,16 +4205,16 @@
     </row>
     <row r="4" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -3976,13 +4224,13 @@
     </row>
     <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -3993,13 +4241,13 @@
     </row>
     <row r="6" spans="1:9" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -4010,20 +4258,20 @@
     </row>
     <row r="7" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -4031,20 +4279,20 @@
     </row>
     <row r="8" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>151</v>
+        <v>367</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -4123,13 +4371,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -4143,20 +4391,20 @@
     </row>
     <row r="2" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -4164,20 +4412,20 @@
     </row>
     <row r="3" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -4185,20 +4433,20 @@
     </row>
     <row r="4" spans="1:9" ht="144.4" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -4206,20 +4454,20 @@
     </row>
     <row r="5" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -4227,20 +4475,20 @@
     </row>
     <row r="6" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -4251,20 +4499,20 @@
         <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -4274,17 +4522,17 @@
         <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -4295,17 +4543,17 @@
         <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -4316,17 +4564,17 @@
         <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -4337,17 +4585,17 @@
         <v>31</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -4358,17 +4606,17 @@
         <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -4379,17 +4627,17 @@
         <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -4400,17 +4648,17 @@
         <v>31</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -4418,20 +4666,20 @@
     </row>
     <row r="15" spans="1:9" ht="196.9" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -4439,20 +4687,20 @@
     </row>
     <row r="16" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A16" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -4494,229 +4742,229 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A11" s="13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>296</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="13" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4724,21 +4972,21 @@
     </row>
     <row r="20" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -4746,103 +4994,103 @@
     </row>
     <row r="22" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="15" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A29" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A30" s="13" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -4850,7 +5098,7 @@
     </row>
     <row r="31" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -4858,17 +5106,17 @@
     </row>
     <row r="32" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -4876,7 +5124,7 @@
     </row>
     <row r="34" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -4884,19 +5132,19 @@
     </row>
     <row r="35" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A35" s="13" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A36" s="13" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -4904,7 +5152,7 @@
     </row>
     <row r="37" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A37" s="13" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -4912,7 +5160,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A38" s="13" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -4920,7 +5168,7 @@
     </row>
     <row r="39" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A39" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -4928,7 +5176,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A40" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -4936,7 +5184,7 @@
     </row>
     <row r="41" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A41" s="13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -4944,31 +5192,31 @@
     </row>
     <row r="42" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A42" s="13" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D42" s="12"/>
     </row>
     <row r="43" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A43" s="13" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A44" s="13" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -4976,79 +5224,79 @@
     </row>
     <row r="45" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A45" s="13" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="15" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A46" s="13" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A47" s="13" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D47" s="12"/>
     </row>
     <row r="48" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A48" s="13" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="12"/>
     </row>
     <row r="49" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A49" s="13" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="12" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A50" s="13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A51" s="13" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>

--- a/ref/Mod_Planing.xlsx
+++ b/ref/Mod_Planing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\elmods\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87264BA9-692B-46E4-941A-72DC275D1A20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01640B3E-9946-4A61-8D5F-C4B7D2B80EA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9128" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,15 +374,6 @@
   <si>
     <t>◆extra 1d10 Lightening Dmg w/ Unarmed
 ◆+3 on Atk Rolls w/ Unarmed
-◆On melee hit, Inflict Shocked for 2 turns
-◆Gain advantage against Shocked creatures.
-◆Conductive Strikes*
-◆Atk Ignore Lightening Resistance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>◆extra 1d10 Lightening Dmg w/ Unarmed
-◆+3 on Atk Rolls w/ Unarmed
 ◆On melee hit, Inflict Stunned for 2 turns to construct race
 ◆Conductive Strikes*
 ◆Effective Transmitter*
@@ -2234,7 +2225,125 @@
         <charset val="136"/>
       </rPr>
       <t xml:space="preserve">
-◆Consume 1 Ki to create piercing vulnerability for 3 rounds</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Consume 1 Ki to create piercing vulnerability for 3 rounds</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆extra 1d10 Lightening Dmg w/ Unarmed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆+3 on Atk Rolls w/ Unarmed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆On melee hit, Inflict Shocked for 2 turns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Gain advantage against Shocked creatures.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">◆Conductive Strikes*
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Atk Ignore Lightening Resistance</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2830,14 +2939,14 @@
     </row>
     <row r="9" spans="1:5" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" s="5"/>
     </row>
@@ -3181,51 +3290,51 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>318</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>319</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="41.65" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -3253,112 +3362,112 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>318</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>338</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>339</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -3459,13 +3568,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -3479,20 +3588,20 @@
     </row>
     <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -3500,20 +3609,20 @@
     </row>
     <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -3521,20 +3630,20 @@
     </row>
     <row r="4" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -3542,20 +3651,20 @@
     </row>
     <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -3563,10 +3672,10 @@
     </row>
     <row r="6" spans="1:9" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -3578,20 +3687,20 @@
     </row>
     <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -3619,8 +3728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8F341F-A795-46C8-A6FF-1FA6ADED9C7D}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -3646,13 +3755,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -3669,19 +3778,19 @@
         <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -3692,17 +3801,17 @@
         <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -3713,17 +3822,17 @@
         <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>75</v>
+        <v>369</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -3734,17 +3843,17 @@
         <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -3755,7 +3864,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>43</v>
@@ -3765,7 +3874,7 @@
         <v>41</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -3776,7 +3885,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>70</v>
@@ -3786,7 +3895,7 @@
         <v>42</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -3797,7 +3906,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>74</v>
@@ -3807,7 +3916,7 @@
         <v>71</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -3818,17 +3927,17 @@
         <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.45">
@@ -3836,17 +3945,17 @@
         <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
@@ -3854,17 +3963,17 @@
         <v>35</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
@@ -3872,17 +3981,17 @@
         <v>35</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="91.9" x14ac:dyDescent="0.45">
@@ -3890,35 +3999,35 @@
         <v>35</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.45">
@@ -3926,17 +4035,17 @@
         <v>33</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
@@ -3944,17 +4053,17 @@
         <v>33</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="91.9" x14ac:dyDescent="0.45">
@@ -3962,17 +4071,17 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
@@ -3980,7 +4089,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>73</v>
@@ -3990,115 +4099,115 @@
         <v>72</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="91.9" x14ac:dyDescent="0.45">
       <c r="A20" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A21" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A22" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A23" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A24" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4139,13 +4248,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -4159,22 +4268,22 @@
     </row>
     <row r="2" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -4182,22 +4291,22 @@
     </row>
     <row r="3" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -4205,16 +4314,16 @@
     </row>
     <row r="4" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -4224,13 +4333,13 @@
     </row>
     <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -4241,13 +4350,13 @@
     </row>
     <row r="6" spans="1:9" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>328</v>
-      </c>
       <c r="C6" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -4258,20 +4367,20 @@
     </row>
     <row r="7" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>218</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -4279,20 +4388,20 @@
     </row>
     <row r="8" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -4371,13 +4480,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -4391,20 +4500,20 @@
     </row>
     <row r="2" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>222</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -4412,20 +4521,20 @@
     </row>
     <row r="3" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -4433,20 +4542,20 @@
     </row>
     <row r="4" spans="1:9" ht="144.4" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -4454,20 +4563,20 @@
     </row>
     <row r="5" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>311</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>312</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -4475,20 +4584,20 @@
     </row>
     <row r="6" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -4499,20 +4608,20 @@
         <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -4522,17 +4631,17 @@
         <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -4543,17 +4652,17 @@
         <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -4564,17 +4673,17 @@
         <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -4585,17 +4694,17 @@
         <v>31</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -4606,17 +4715,17 @@
         <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -4627,17 +4736,17 @@
         <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -4648,17 +4757,17 @@
         <v>31</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -4666,20 +4775,20 @@
     </row>
     <row r="15" spans="1:9" ht="196.9" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -4687,20 +4796,20 @@
     </row>
     <row r="16" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A16" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -4742,229 +4851,229 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>241</v>
-      </c>
       <c r="C1" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>242</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>314</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A11" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="12" t="s">
         <v>282</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4972,21 +5081,21 @@
     </row>
     <row r="20" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>242</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -4994,103 +5103,103 @@
     </row>
     <row r="22" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A29" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A30" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -5098,7 +5207,7 @@
     </row>
     <row r="31" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -5106,17 +5215,17 @@
     </row>
     <row r="32" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -5124,7 +5233,7 @@
     </row>
     <row r="34" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -5132,19 +5241,19 @@
     </row>
     <row r="35" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A35" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A36" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -5152,7 +5261,7 @@
     </row>
     <row r="37" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A37" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -5160,7 +5269,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A38" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -5168,7 +5277,7 @@
     </row>
     <row r="39" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A39" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -5176,7 +5285,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A40" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -5184,7 +5293,7 @@
     </row>
     <row r="41" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A41" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -5192,31 +5301,31 @@
     </row>
     <row r="42" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A42" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D42" s="12"/>
     </row>
     <row r="43" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A43" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A44" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -5224,79 +5333,79 @@
     </row>
     <row r="45" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A45" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A46" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A47" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D47" s="12"/>
     </row>
     <row r="48" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A48" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="12"/>
     </row>
     <row r="49" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A49" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A50" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A51" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>

--- a/ref/Mod_Planing.xlsx
+++ b/ref/Mod_Planing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\elmods\ref\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ellom\working\elmods\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01640B3E-9946-4A61-8D5F-C4B7D2B80EA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B8BB9B-0EBC-4BB1-B676-1DEFEF09F844}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9128" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9126" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_idea" sheetId="4" r:id="rId1"/>
@@ -216,15 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>◆extra 1d6 Fire Dmg on melee
-◆extra 1d4 Fire Dmg when u deal fire dmg
-◆On melee hit, Inflict Burning for 2 turns
-◆Arcane Ashes*: Whenever you deal Fire damage, you gain 2 turns of Heat.
-◆While ur in Heat Condition, ur atk deal extra 1 fire dmg.
-◆Atk Ignore Fire Resistance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Build Temp Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,15 +329,6 @@
   <si>
     <t>◆Charged Slash
 ◆Charge Manuvers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>◆extra 1d10 Fire Dmg w/ Unarmed
-◆+3 on Atk Rolls w/ Unarmed
-◆Hellfire Exhaust*: Recharge per battle
-◆On melee hit, Inflict Roiling Hellfire for 1 turns to undead, Aberration &amp; Fiends Creature w/ WIS Save
-◆Advantage on atk roll against undead, Aberration &amp; Fiends Creature
-◆Gain Spell: Greater Restoration (Per Long Rest)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -369,15 +351,6 @@
 ◆Arming Enhancement*: +2 to Atk&amp;Dmg with weapons
 ◆Str Save &amp; Dex Save +1
 ◆Imp Critical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>◆extra 1d10 Lightening Dmg w/ Unarmed
-◆+3 on Atk Rolls w/ Unarmed
-◆On melee hit, Inflict Stunned for 2 turns to construct race
-◆Conductive Strikes*
-◆Effective Transmitter*
-◆Atk Ignore Lightening Resistance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2332,18 +2305,302 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">◆Conductive Strikes*
+      <t>◆Conductive Strikes*
+◆Atk Ignore Lightening Resistance</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆extra 1d10 Lightening Dmg w/ Unarmed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆+3 on Atk Rolls w/ Unarmed
+◆On melee hit, Inflict Stunned for 2 turns to construct race</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Microsoft JhengHei Light"/>
         <family val="2"/>
         <charset val="136"/>
       </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Conductive Strikes*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Effective Transmitter*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
       <t>◆Atk Ignore Lightening Resistance</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆extra 1d6 Fire Dmg on melee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆extra 1d4 Fire Dmg when u deal fire dmg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆On melee hit, Inflict Burning for 2 turns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Arcane Ashes*: Whenever you deal Fire damage, you gain 2 turns of Heat.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆While ur in Heat Condition, ur atk deal extra 1 fire dmg.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Atk Ignore Fire Resistance</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆extra 1d10 Fire Dmg w/ Unarmed
+◆+3 on Atk Rolls w/ Unarmed
+◆Hellfire Exhaust*: Recharge per battle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆On melee hit, Inflict Roiling Hellfire for 1 turns to undead, Aberration &amp; Fiends Creature w/ WIS Save</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Advantage on atk roll against undead, Aberration &amp; Fiends Creature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Gain Spell: Greater Restoration (Per Long Rest)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2816,219 +3073,219 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.2109375" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="25.41015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.234375" customWidth="1"/>
+    <col min="3" max="3" width="27.41015625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.29296875" customWidth="1"/>
+    <col min="5" max="5" width="25.46875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="38.700000000000003" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="39.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A4" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="26.25" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="39.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="38.700000000000003" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="39.4" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="38.700000000000003" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3052,12 +3309,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="4" width="32.640625" customWidth="1"/>
+    <col min="2" max="4" width="32.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3072,7 +3329,7 @@
       </c>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="46.15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="45.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3086,7 +3343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="46.15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="45.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3100,7 +3357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="76.900000000000006" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="122.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3112,7 +3369,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="46.15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="45.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3126,7 +3383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="30.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3138,7 +3395,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="61.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="61.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3150,7 +3407,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3162,7 +3419,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3174,7 +3431,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="30.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3186,7 +3443,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3198,7 +3455,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3210,7 +3467,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="30.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3222,43 +3479,43 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3279,62 +3536,62 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.92578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.640625" customWidth="1"/>
-    <col min="4" max="4" width="45.640625" customWidth="1"/>
-    <col min="5" max="6" width="15.640625" customWidth="1"/>
+    <col min="1" max="1" width="5.9375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.64453125" customWidth="1"/>
+    <col min="4" max="4" width="45.64453125" customWidth="1"/>
+    <col min="5" max="6" width="15.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="41.65" x14ac:dyDescent="0.45">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="38.700000000000003" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="17" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="18" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F2" s="18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -3352,179 +3609,179 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.640625" customWidth="1"/>
-    <col min="4" max="4" width="45.640625" customWidth="1"/>
+    <col min="1" max="1" width="6.64453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.64453125" customWidth="1"/>
+    <col min="4" max="4" width="45.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="17" t="s">
-        <v>323</v>
-      </c>
       <c r="B2" s="17" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="17" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="17" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="17" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="17" t="s">
-        <v>343</v>
-      </c>
       <c r="B5" s="17" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="17" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="17" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="17" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="17" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="16"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="16"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="16"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="16"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="16"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="16"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="16"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="16"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="16"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="16"/>
@@ -3545,19 +3802,19 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.640625" customWidth="1"/>
-    <col min="2" max="2" width="15.640625" customWidth="1"/>
-    <col min="3" max="3" width="35.640625" customWidth="1"/>
-    <col min="4" max="4" width="8.640625" customWidth="1"/>
-    <col min="5" max="5" width="15.640625" customWidth="1"/>
-    <col min="6" max="6" width="8.640625" customWidth="1"/>
-    <col min="7" max="7" width="60.640625" customWidth="1"/>
-    <col min="8" max="9" width="40.640625" customWidth="1"/>
+    <col min="1" max="1" width="10.64453125" customWidth="1"/>
+    <col min="2" max="2" width="15.64453125" customWidth="1"/>
+    <col min="3" max="3" width="35.64453125" customWidth="1"/>
+    <col min="4" max="4" width="8.64453125" customWidth="1"/>
+    <col min="5" max="5" width="15.64453125" customWidth="1"/>
+    <col min="6" max="6" width="8.64453125" customWidth="1"/>
+    <col min="7" max="7" width="60.64453125" customWidth="1"/>
+    <col min="8" max="9" width="40.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3568,13 +3825,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -3586,96 +3843,96 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -3685,28 +3942,28 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -3728,23 +3985,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8F341F-A795-46C8-A6FF-1FA6ADED9C7D}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.640625" customWidth="1"/>
-    <col min="2" max="2" width="15.640625" customWidth="1"/>
-    <col min="3" max="3" width="35.640625" customWidth="1"/>
-    <col min="4" max="4" width="8.640625" customWidth="1"/>
-    <col min="5" max="5" width="15.640625" customWidth="1"/>
-    <col min="6" max="6" width="8.640625" customWidth="1"/>
-    <col min="7" max="7" width="60.640625" customWidth="1"/>
-    <col min="8" max="9" width="40.640625" customWidth="1"/>
+    <col min="1" max="1" width="10.64453125" customWidth="1"/>
+    <col min="2" max="2" width="15.64453125" customWidth="1"/>
+    <col min="3" max="3" width="35.64453125" customWidth="1"/>
+    <col min="4" max="4" width="8.64453125" customWidth="1"/>
+    <col min="5" max="5" width="15.64453125" customWidth="1"/>
+    <col min="6" max="6" width="8.64453125" customWidth="1"/>
+    <col min="7" max="7" width="60.64453125" customWidth="1"/>
+    <col min="8" max="9" width="40.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3755,13 +4012,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -3773,441 +4030,441 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="116.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="105" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>75</v>
+        <v>367</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>43</v>
+        <v>368</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>70</v>
+        <v>369</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="91.9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="90.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.45">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="116.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="91.9" x14ac:dyDescent="0.45">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="90.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.45">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.45">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="91.9" x14ac:dyDescent="0.45">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="90.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="91.9" x14ac:dyDescent="0.45">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="90.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="118.15" x14ac:dyDescent="0.45">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="116.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4221,23 +4478,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE404FD-ED0E-4839-AB3C-E49A1E70FD14}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.640625" customWidth="1"/>
-    <col min="2" max="2" width="15.640625" customWidth="1"/>
-    <col min="3" max="3" width="35.640625" customWidth="1"/>
-    <col min="4" max="4" width="8.640625" customWidth="1"/>
-    <col min="5" max="5" width="15.640625" customWidth="1"/>
-    <col min="6" max="6" width="8.640625" customWidth="1"/>
-    <col min="7" max="7" width="60.640625" customWidth="1"/>
-    <col min="8" max="9" width="40.640625" customWidth="1"/>
+    <col min="1" max="1" width="10.64453125" customWidth="1"/>
+    <col min="2" max="2" width="15.64453125" customWidth="1"/>
+    <col min="3" max="3" width="35.64453125" customWidth="1"/>
+    <col min="4" max="4" width="8.64453125" customWidth="1"/>
+    <col min="5" max="5" width="15.64453125" customWidth="1"/>
+    <col min="6" max="6" width="8.64453125" customWidth="1"/>
+    <col min="7" max="7" width="60.64453125" customWidth="1"/>
+    <col min="8" max="9" width="40.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4248,13 +4505,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -4266,64 +4523,64 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="116.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -4331,15 +4588,15 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -4348,15 +4605,15 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="51.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -4365,49 +4622,49 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="116.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="116.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -4418,7 +4675,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -4426,7 +4683,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -4434,7 +4691,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -4457,19 +4714,19 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.640625" customWidth="1"/>
-    <col min="2" max="2" width="15.640625" customWidth="1"/>
-    <col min="3" max="3" width="35.640625" customWidth="1"/>
-    <col min="4" max="4" width="8.640625" customWidth="1"/>
-    <col min="5" max="5" width="15.640625" customWidth="1"/>
-    <col min="6" max="6" width="8.640625" customWidth="1"/>
-    <col min="7" max="7" width="60.640625" customWidth="1"/>
-    <col min="8" max="9" width="40.640625" customWidth="1"/>
+    <col min="1" max="1" width="10.64453125" customWidth="1"/>
+    <col min="2" max="2" width="15.64453125" customWidth="1"/>
+    <col min="3" max="3" width="35.64453125" customWidth="1"/>
+    <col min="4" max="4" width="8.64453125" customWidth="1"/>
+    <col min="5" max="5" width="15.64453125" customWidth="1"/>
+    <col min="6" max="6" width="8.64453125" customWidth="1"/>
+    <col min="7" max="7" width="60.64453125" customWidth="1"/>
+    <col min="8" max="9" width="40.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4480,13 +4737,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -4498,324 +4755,324 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="116.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="90.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="144.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="141.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="116.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="196.9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="193.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="144.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="154.80000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="144.4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="141.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="144.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="141.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="170.65" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="167.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="196.9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="206.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -4841,613 +5098,613 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.0703125" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.41015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.05859375" customWidth="1"/>
+    <col min="3" max="3" width="32.703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.41015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D2" s="12" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="13" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="13" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="13" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="30.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="13" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="13" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="30.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="13" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="13" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A11" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D14" s="12" t="s">
+      <c r="B18" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="13" t="s">
         <v>282</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="13" t="s">
-        <v>285</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="13" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="13" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="30.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="13" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="15" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="13" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="13" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A26" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D26" s="12"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A27" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A28" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="13" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="13" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="13" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="13" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="13" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="13" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="13" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="13" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="13" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D43" s="12"/>
     </row>
-    <row r="44" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="13" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" ht="30.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="13" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="15" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="30.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="13" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="13" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D47" s="12"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="D47" s="12"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A48" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="12"/>
     </row>
-    <row r="49" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="13" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="13" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="12" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="13" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="12"/>
     </row>
-    <row r="52" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="13"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="12"/>
     </row>
-    <row r="53" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="13"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="12"/>
     </row>
-    <row r="54" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="13"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="12"/>
     </row>
-    <row r="55" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="13"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="12"/>
     </row>
-    <row r="56" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="13"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="12"/>
     </row>
-    <row r="57" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="13"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="12"/>
     </row>
-    <row r="58" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="13"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>

--- a/ref/Mod_Planing.xlsx
+++ b/ref/Mod_Planing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ellom\working\elmods\ref\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\elmods\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B8BB9B-0EBC-4BB1-B676-1DEFEF09F844}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1FD1DD-C6DD-43AB-BC4F-1CBE16A7A93A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9126" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9128" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_idea" sheetId="4" r:id="rId1"/>
@@ -347,13 +347,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>◆Set Wearer's Str to 28
-◆Arming Enhancement*: +2 to Atk&amp;Dmg with weapons
-◆Str Save &amp; Dex Save +1
-◆Imp Critical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>◆Spells cost an Action cost a Bonus Action instead.
 ◆Summon Arcane Suit</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2601,6 +2594,42 @@
         <charset val="136"/>
       </rPr>
       <t>◆Gain Spell: Greater Restoration (Per Long Rest)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Set Wearer's Str to 28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Arming Enhancement*: +2 to Atk&amp;Dmg with weapons
+◆Str Save &amp; Dex Save +1
+◆Imp Critical</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3073,16 +3102,16 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.41015625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.234375" customWidth="1"/>
-    <col min="3" max="3" width="27.41015625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.29296875" customWidth="1"/>
-    <col min="5" max="5" width="25.46875" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.2109375" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -3099,7 +3128,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="38.700000000000003" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
@@ -3116,7 +3145,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>56</v>
       </c>
@@ -3131,7 +3160,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>59</v>
       </c>
@@ -3144,7 +3173,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>60</v>
       </c>
@@ -3157,14 +3186,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="38.700000000000003" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>52</v>
       </c>
@@ -3179,7 +3208,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>55</v>
       </c>
@@ -3194,98 +3223,98 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="38.700000000000003" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3309,12 +3338,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="4" width="32.64453125" customWidth="1"/>
+    <col min="2" max="4" width="32.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3329,7 +3358,7 @@
       </c>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="45.9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" ht="46.15" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3343,7 +3372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45.9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" ht="46.15" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3357,7 +3386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="122.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" ht="76.900000000000006" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3369,7 +3398,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="45.9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" ht="46.15" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3383,7 +3412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3395,7 +3424,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="61.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" ht="61.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3407,7 +3436,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3419,7 +3448,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3431,7 +3460,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="30.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3443,7 +3472,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3455,7 +3484,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3467,7 +3496,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="30.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3479,43 +3508,43 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3536,62 +3565,62 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.9375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.64453125" customWidth="1"/>
-    <col min="4" max="4" width="45.64453125" customWidth="1"/>
-    <col min="5" max="6" width="15.64453125" customWidth="1"/>
+    <col min="1" max="1" width="5.92578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.640625" customWidth="1"/>
+    <col min="4" max="4" width="45.640625" customWidth="1"/>
+    <col min="5" max="6" width="15.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>314</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>315</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="38.700000000000003" x14ac:dyDescent="0.55000000000000004">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="41.65" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>328</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -3609,179 +3638,179 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.64453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.64453125" customWidth="1"/>
-    <col min="4" max="4" width="45.64453125" customWidth="1"/>
+    <col min="1" max="1" width="6.640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.640625" customWidth="1"/>
+    <col min="4" max="4" width="45.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>335</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="5" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="17" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="17" t="s">
-        <v>347</v>
-      </c>
       <c r="B7" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="17" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="17" t="s">
-        <v>349</v>
-      </c>
       <c r="B8" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="17" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="17" t="s">
-        <v>351</v>
-      </c>
       <c r="B9" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="16"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="16"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="16"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="16"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="16"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="16"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="16"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="16"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="16"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="16"/>
@@ -3802,19 +3831,19 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.64453125" customWidth="1"/>
-    <col min="2" max="2" width="15.64453125" customWidth="1"/>
-    <col min="3" max="3" width="35.64453125" customWidth="1"/>
-    <col min="4" max="4" width="8.64453125" customWidth="1"/>
-    <col min="5" max="5" width="15.64453125" customWidth="1"/>
-    <col min="6" max="6" width="8.64453125" customWidth="1"/>
-    <col min="7" max="7" width="60.64453125" customWidth="1"/>
-    <col min="8" max="9" width="40.64453125" customWidth="1"/>
+    <col min="1" max="1" width="10.640625" customWidth="1"/>
+    <col min="2" max="2" width="15.640625" customWidth="1"/>
+    <col min="3" max="3" width="35.640625" customWidth="1"/>
+    <col min="4" max="4" width="8.640625" customWidth="1"/>
+    <col min="5" max="5" width="15.640625" customWidth="1"/>
+    <col min="6" max="6" width="8.640625" customWidth="1"/>
+    <col min="7" max="7" width="60.640625" customWidth="1"/>
+    <col min="8" max="9" width="40.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3825,13 +3854,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -3843,96 +3872,96 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -3942,28 +3971,28 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="10"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -3985,23 +4014,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8F341F-A795-46C8-A6FF-1FA6ADED9C7D}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.64453125" customWidth="1"/>
-    <col min="2" max="2" width="15.64453125" customWidth="1"/>
-    <col min="3" max="3" width="35.64453125" customWidth="1"/>
-    <col min="4" max="4" width="8.64453125" customWidth="1"/>
-    <col min="5" max="5" width="15.64453125" customWidth="1"/>
-    <col min="6" max="6" width="8.64453125" customWidth="1"/>
-    <col min="7" max="7" width="60.64453125" customWidth="1"/>
-    <col min="8" max="9" width="40.64453125" customWidth="1"/>
+    <col min="1" max="1" width="10.640625" customWidth="1"/>
+    <col min="2" max="2" width="15.640625" customWidth="1"/>
+    <col min="3" max="3" width="35.640625" customWidth="1"/>
+    <col min="4" max="4" width="8.640625" customWidth="1"/>
+    <col min="5" max="5" width="15.640625" customWidth="1"/>
+    <col min="6" max="6" width="8.640625" customWidth="1"/>
+    <col min="7" max="7" width="60.640625" customWidth="1"/>
+    <col min="8" max="9" width="40.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4012,13 +4041,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -4030,323 +4059,323 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="116.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>72</v>
+        <v>369</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
         <v>69</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="90.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" ht="91.9" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>77</v>
+        <v>163</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>76</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A10" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>76</v>
+        <v>165</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="116.1" x14ac:dyDescent="0.55000000000000004">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="90.3" x14ac:dyDescent="0.55000000000000004">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="91.9" x14ac:dyDescent="0.45">
       <c r="A13" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="103.2" x14ac:dyDescent="0.55000000000000004">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A16" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="90.3" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="91.9" x14ac:dyDescent="0.45">
       <c r="A17" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A18" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>71</v>
@@ -4356,115 +4385,115 @@
         <v>70</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="90.3" x14ac:dyDescent="0.55000000000000004">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="91.9" x14ac:dyDescent="0.45">
       <c r="A20" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A21" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A22" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A23" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="116.1" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A24" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -4482,19 +4511,19 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.64453125" customWidth="1"/>
-    <col min="2" max="2" width="15.64453125" customWidth="1"/>
-    <col min="3" max="3" width="35.64453125" customWidth="1"/>
-    <col min="4" max="4" width="8.64453125" customWidth="1"/>
-    <col min="5" max="5" width="15.64453125" customWidth="1"/>
-    <col min="6" max="6" width="8.64453125" customWidth="1"/>
-    <col min="7" max="7" width="60.64453125" customWidth="1"/>
-    <col min="8" max="9" width="40.64453125" customWidth="1"/>
+    <col min="1" max="1" width="10.640625" customWidth="1"/>
+    <col min="2" max="2" width="15.640625" customWidth="1"/>
+    <col min="3" max="3" width="35.640625" customWidth="1"/>
+    <col min="4" max="4" width="8.640625" customWidth="1"/>
+    <col min="5" max="5" width="15.640625" customWidth="1"/>
+    <col min="6" max="6" width="8.640625" customWidth="1"/>
+    <col min="7" max="7" width="60.640625" customWidth="1"/>
+    <col min="8" max="9" width="40.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4505,13 +4534,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -4523,64 +4552,64 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="116.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -4588,15 +4617,15 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>319</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -4605,15 +4634,15 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="51.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>324</v>
-      </c>
       <c r="C6" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -4622,49 +4651,49 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="116.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>143</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="116.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="10"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -4675,7 +4704,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="10"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -4683,7 +4712,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="10"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -4691,7 +4720,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="10"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -4714,19 +4743,19 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.64453125" customWidth="1"/>
-    <col min="2" max="2" width="15.64453125" customWidth="1"/>
-    <col min="3" max="3" width="35.64453125" customWidth="1"/>
-    <col min="4" max="4" width="8.64453125" customWidth="1"/>
-    <col min="5" max="5" width="15.64453125" customWidth="1"/>
-    <col min="6" max="6" width="8.64453125" customWidth="1"/>
-    <col min="7" max="7" width="60.64453125" customWidth="1"/>
-    <col min="8" max="9" width="40.64453125" customWidth="1"/>
+    <col min="1" max="1" width="10.640625" customWidth="1"/>
+    <col min="2" max="2" width="15.640625" customWidth="1"/>
+    <col min="3" max="3" width="35.640625" customWidth="1"/>
+    <col min="4" max="4" width="8.640625" customWidth="1"/>
+    <col min="5" max="5" width="15.640625" customWidth="1"/>
+    <col min="6" max="6" width="8.640625" customWidth="1"/>
+    <col min="7" max="7" width="60.640625" customWidth="1"/>
+    <col min="8" max="9" width="40.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4737,13 +4766,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -4755,324 +4784,324 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="116.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>218</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="90.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="141.9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" ht="144.4" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="116.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="77.400000000000006" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="193.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="196.9" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="154.80000000000001" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="144.4" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A10" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="141.9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" ht="144.4" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="141.9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" ht="144.4" x14ac:dyDescent="0.45">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="167.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" ht="170.65" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="206.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" ht="196.9" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="129" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A16" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="10"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -5098,613 +5127,613 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.41015625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.05859375" customWidth="1"/>
-    <col min="3" max="3" width="32.703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.41015625" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.0703125" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A6" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
+      <c r="A7" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A8" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
+      <c r="A9" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>258</v>
-      </c>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:4" ht="30.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:4" ht="30.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>259</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D10" s="12"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A11" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D11" s="12"/>
     </row>
-    <row r="12" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D12" s="12"/>
     </row>
-    <row r="13" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="D15" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D16" s="12" t="s">
+    <row r="17" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D17" s="12"/>
     </row>
-    <row r="18" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D18" s="12"/>
     </row>
-    <row r="19" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="21" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:4" ht="30.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="15" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A28" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A29" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D28" s="12"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="13" t="s">
+      <c r="B29" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A30" s="13" t="s">
         <v>266</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D29" s="12"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="13" t="s">
-        <v>267</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A35" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A36" s="13" t="s">
         <v>245</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D35" s="12"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="13" t="s">
-        <v>246</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A37" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A38" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A39" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A40" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A41" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A42" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D42" s="12"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A43" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D43" s="12"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A44" s="13" t="s">
         <v>256</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D42" s="12"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D43" s="12"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="13" t="s">
-        <v>257</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:4" ht="30.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A45" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
+      <c r="A46" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A47" s="13" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="30.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="13" t="s">
-        <v>298</v>
-      </c>
       <c r="B47" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D47" s="12"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A48" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="12"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A49" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A50" s="13" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="13" t="s">
-        <v>287</v>
-      </c>
       <c r="B50" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="12" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A51" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="12"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A52" s="13"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="12"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A53" s="13"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="12"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A54" s="13"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="12"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A55" s="13"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="12"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A56" s="13"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="12"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A57" s="13"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="12"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A58" s="13"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>

--- a/ref/Mod_Planing.xlsx
+++ b/ref/Mod_Planing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\elmods\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1FD1DD-C6DD-43AB-BC4F-1CBE16A7A93A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB66873-2944-43EA-AEF7-6F62EE18E4BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9128" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,15 +362,6 @@
   </si>
   <si>
     <t>◆AC=13
-◆Dex+2
-◆Experienced And Deadly*: Wis mod to unarmed dmg
-◆Variant Kushigo Counter: Flurry of Blows: Topple(prone atk)
-◆Immunity to Bleed, Poisoned, Disease
-◆Restore 1 Ki whenever you drop an enemy's hp to 0.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>◆AC=13
 ◆Con+2
 ◆Resistance to Lightening Dmg
 ◆Inmmune to shocked and electrocuted condition.
@@ -385,15 +376,6 @@
 ◆Defier's Rejuvenation*
 ◆Breezeswift Speed*
 ◆Force Retaliation Dmg on melee attacker when they hit u.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>◆AC=13
-◆Con+2
-◆Ki Pool+2
-◆Consume 1 Ki to gain DR(2)&amp;Resistance to physical dmg for 10 turns
-◆Stoneskin*: Recharge Long Rest
-◆Restore 1 Ki whenever wearer succeeds on a saving throw against spell.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2630,6 +2612,122 @@
       <t>◆Arming Enhancement*: +2 to Atk&amp;Dmg with weapons
 ◆Str Save &amp; Dex Save +1
 ◆Imp Critical</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆AC=13
+◆Con+2
+◆Ki Pool+2
+◆Consume 1 Ki to gain DR(2)&amp;Resistance to physical dmg for 10 turns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Stoneskin*: Recharge Long Rest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Restore 1 Ki whenever wearer succeeds on a saving throw against spell.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">◆AC=13
+◆Dex+2
+◆Experienced And Deadly*: Wis mod to unarmed dmg
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">◆
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Immunity to Bleed, Stunned</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Restore 1 Ki whenever you drop an enemy's hp to 0.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3225,7 +3323,7 @@
     </row>
     <row r="9" spans="1:5" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="5" t="s">
@@ -3576,51 +3674,51 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="41.65" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="18" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -3648,112 +3746,112 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>319</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>321</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -3854,13 +3952,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -3874,20 +3972,20 @@
     </row>
     <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -3895,20 +3993,20 @@
     </row>
     <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -3916,20 +4014,20 @@
     </row>
     <row r="4" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -3937,20 +4035,20 @@
     </row>
     <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -3958,10 +4056,10 @@
     </row>
     <row r="6" spans="1:9" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -3973,20 +4071,20 @@
     </row>
     <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -4014,8 +4112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8F341F-A795-46C8-A6FF-1FA6ADED9C7D}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -4041,13 +4139,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -4064,19 +4162,19 @@
         <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -4087,17 +4185,17 @@
         <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -4108,17 +4206,17 @@
         <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -4129,17 +4227,17 @@
         <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -4150,17 +4248,17 @@
         <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -4171,17 +4269,17 @@
         <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -4192,17 +4290,17 @@
         <v>30</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
         <v>69</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -4213,17 +4311,17 @@
         <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.45">
@@ -4231,17 +4329,17 @@
         <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
@@ -4249,35 +4347,35 @@
         <v>35</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>74</v>
+        <v>369</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="91.9" x14ac:dyDescent="0.45">
@@ -4285,35 +4383,35 @@
         <v>35</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.45">
@@ -4321,17 +4419,17 @@
         <v>33</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
@@ -4339,17 +4437,17 @@
         <v>33</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="91.9" x14ac:dyDescent="0.45">
@@ -4357,17 +4455,17 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
@@ -4375,7 +4473,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>71</v>
@@ -4385,115 +4483,115 @@
         <v>70</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="91.9" x14ac:dyDescent="0.45">
       <c r="A20" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A21" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A22" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A23" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="C23" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A24" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4534,13 +4632,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -4554,22 +4652,22 @@
     </row>
     <row r="2" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -4577,22 +4675,22 @@
     </row>
     <row r="3" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -4600,16 +4698,16 @@
     </row>
     <row r="4" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -4619,13 +4717,13 @@
     </row>
     <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -4636,13 +4734,13 @@
     </row>
     <row r="6" spans="1:9" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -4653,20 +4751,20 @@
     </row>
     <row r="7" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -4674,20 +4772,20 @@
     </row>
     <row r="8" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -4766,13 +4864,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -4786,20 +4884,20 @@
     </row>
     <row r="2" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -4807,20 +4905,20 @@
     </row>
     <row r="3" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -4828,20 +4926,20 @@
     </row>
     <row r="4" spans="1:9" ht="144.4" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -4849,20 +4947,20 @@
     </row>
     <row r="5" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -4870,20 +4968,20 @@
     </row>
     <row r="6" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -4894,20 +4992,20 @@
         <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -4917,17 +5015,17 @@
         <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -4938,17 +5036,17 @@
         <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -4959,17 +5057,17 @@
         <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -4980,17 +5078,17 @@
         <v>31</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -5001,17 +5099,17 @@
         <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -5022,17 +5120,17 @@
         <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -5043,17 +5141,17 @@
         <v>31</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -5061,20 +5159,20 @@
     </row>
     <row r="15" spans="1:9" ht="196.9" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -5082,20 +5180,20 @@
     </row>
     <row r="16" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A16" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -5137,229 +5235,229 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A11" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>276</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>288</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5367,21 +5465,21 @@
     </row>
     <row r="20" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -5389,103 +5487,103 @@
     </row>
     <row r="22" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A29" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A30" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -5493,7 +5591,7 @@
     </row>
     <row r="31" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -5501,17 +5599,17 @@
     </row>
     <row r="32" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -5519,7 +5617,7 @@
     </row>
     <row r="34" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -5527,19 +5625,19 @@
     </row>
     <row r="35" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A35" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A36" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -5547,7 +5645,7 @@
     </row>
     <row r="37" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A37" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -5555,7 +5653,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A38" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -5563,7 +5661,7 @@
     </row>
     <row r="39" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A39" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -5571,7 +5669,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A40" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -5579,7 +5677,7 @@
     </row>
     <row r="41" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A41" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -5587,31 +5685,31 @@
     </row>
     <row r="42" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A42" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="D42" s="12"/>
     </row>
     <row r="43" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A43" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A44" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -5619,79 +5717,79 @@
     </row>
     <row r="45" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A45" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A46" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A47" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D47" s="12"/>
     </row>
     <row r="48" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A48" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="12"/>
     </row>
     <row r="49" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A49" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A50" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A51" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>

--- a/ref/Mod_Planing.xlsx
+++ b/ref/Mod_Planing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\elmods\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB66873-2944-43EA-AEF7-6F62EE18E4BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFAA593-A57B-4AA5-A389-096A8ABB34F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9128" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,15 +354,6 @@
   <si>
     <t>◆AC=13
 ◆Con+2
-◆+1 Bonus Action
-◆While ur in Heat or Burning Condition, u regain 1d4 hp at start of turn
-◆Immunity to Fire Dmg
-◆Infernal Evasion*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>◆AC=13
-◆Con+2
 ◆Resistance to Lightening Dmg
 ◆Inmmune to shocked and electrocuted condition.
 ◆Restore 1 Ki when u start ur turn in Electrified Water.
@@ -394,13 +385,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>◆Hellcrawler*:Teleport w/fire dmg
-◆Immune to Burning &amp; Lava Surface or Fire Surface
-◆Steadfast*: You can't be forcibly moved by spells or actions, and ignore the effects of Difficult Terrain.
-◆Athletics+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MAG_ChargedLightning_ElectricSurface_Boots</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -538,20 +522,7 @@
     <t>Boot</t>
   </si>
   <si>
-    <t>◆Init+1 &amp; Speed+3 m/10 ft
-◆Assassin's Alacrity*
-◆Experienced And Deadly*: Wis mod to unarmed dmg
-◆Critical Swiftness*: After scoring a Critical Hit or killing a hostile creature, movement speed is restored to maximum.</t>
-  </si>
-  <si>
     <t>MAG_Monk_Magic_Boots</t>
-  </si>
-  <si>
-    <t>◆Electrify Water*
-◆Watersparks*
-◆Speedy Sparks*
-◆Init+1 &amp; Speed+3 m/10 ft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Helmet</t>
@@ -2682,31 +2653,10 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">◆AC=13
+      <t>◆AC=13
 ◆Dex+2
 ◆Experienced And Deadly*: Wis mod to unarmed dmg
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">◆
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>◆Immunity to Bleed, Stunned</t>
+◆Exoskeletal Reinforcement*: Attacks ignore all physical resistances.</t>
     </r>
     <r>
       <rPr>
@@ -2727,8 +2677,215 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
+      <t>◆Immunity to Bleed, Stunned</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
       <t>◆Restore 1 Ki whenever you drop an enemy's hp to 0.</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆AC=13
+◆Con+2
+◆+1 Bonus Action
+◆While ur in Heat or Burning Condition, u regain 1d4 hp at start of turn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Immunity to Fire Dmg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Infernal Evasion*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Init+1 &amp; Speed+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="微軟正黑體 Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>m/10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="微軟正黑體 Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ft</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體 Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="微軟正黑體 Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Assassin's Alacrity*
+◆Experienced And Deadly*: Wis mod to unarmed dmg
+◆Critical Swiftness*: After scoring a Critical Hit or killing a hostile creature, movement speed is restored to maximum.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>◆Electrify Water*
+◆Watersparks*
+◆Speedy Sparks*
+◆Init+1 &amp; Speed+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="微軟正黑體 Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>m/10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="微軟正黑體 Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ft</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◆Hellcrawler*:Teleport w/fire dmg
+◆Immune to Lava Surface or Fire Surface
+◆Steadfast*: You can't be forcibly moved by spells or actions, and ignore the effects of Difficult Terrain.
+◆Athletics+2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2736,7 +2893,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2828,6 +2985,26 @@
       <sz val="10"/>
       <color theme="5" tint="-0.249977111117893"/>
       <name val="Microsoft JhengHei Light"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微軟正黑體 Light"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="微軟正黑體 Light"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
@@ -3323,7 +3500,7 @@
     </row>
     <row r="9" spans="1:5" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="5" t="s">
@@ -3674,51 +3851,51 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="41.65" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="18" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>322</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -3746,112 +3923,112 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="17" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="17" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="17" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -3952,13 +4129,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -3972,20 +4149,20 @@
     </row>
     <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -3993,20 +4170,20 @@
     </row>
     <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -4014,20 +4191,20 @@
     </row>
     <row r="4" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -4035,20 +4212,20 @@
     </row>
     <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -4056,10 +4233,10 @@
     </row>
     <row r="6" spans="1:9" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4071,20 +4248,20 @@
     </row>
     <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -4112,8 +4289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8F341F-A795-46C8-A6FF-1FA6ADED9C7D}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -4139,13 +4316,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -4162,19 +4339,19 @@
         <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -4185,17 +4362,17 @@
         <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -4206,17 +4383,17 @@
         <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -4227,17 +4404,17 @@
         <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -4248,17 +4425,17 @@
         <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -4269,17 +4446,17 @@
         <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -4290,17 +4467,17 @@
         <v>30</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
         <v>69</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -4311,17 +4488,17 @@
         <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.45">
@@ -4329,17 +4506,17 @@
         <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
@@ -4347,35 +4524,35 @@
         <v>35</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="105" x14ac:dyDescent="0.45">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="91.9" x14ac:dyDescent="0.45">
@@ -4383,35 +4560,35 @@
         <v>35</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>73</v>
+        <v>366</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>117</v>
+        <v>367</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.45">
@@ -4419,17 +4596,17 @@
         <v>33</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>78</v>
+        <v>155</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
@@ -4437,17 +4614,17 @@
         <v>33</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>119</v>
+        <v>154</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>368</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="91.9" x14ac:dyDescent="0.45">
@@ -4455,17 +4632,17 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>79</v>
+        <v>153</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>369</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
@@ -4473,7 +4650,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>71</v>
@@ -4483,115 +4660,115 @@
         <v>70</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="91.9" x14ac:dyDescent="0.45">
       <c r="A20" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A21" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A22" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A23" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A24" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4632,13 +4809,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -4652,22 +4829,22 @@
     </row>
     <row r="2" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -4675,22 +4852,22 @@
     </row>
     <row r="3" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -4698,16 +4875,16 @@
     </row>
     <row r="4" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -4717,13 +4894,13 @@
     </row>
     <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -4734,13 +4911,13 @@
     </row>
     <row r="6" spans="1:9" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -4751,20 +4928,20 @@
     </row>
     <row r="7" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -4772,20 +4949,20 @@
     </row>
     <row r="8" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -4864,13 +5041,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -4884,20 +5061,20 @@
     </row>
     <row r="2" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -4905,20 +5082,20 @@
     </row>
     <row r="3" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -4926,20 +5103,20 @@
     </row>
     <row r="4" spans="1:9" ht="144.4" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -4947,20 +5124,20 @@
     </row>
     <row r="5" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -4968,20 +5145,20 @@
     </row>
     <row r="6" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -4992,20 +5169,20 @@
         <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -5015,17 +5192,17 @@
         <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -5036,17 +5213,17 @@
         <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -5057,17 +5234,17 @@
         <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -5078,17 +5255,17 @@
         <v>31</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -5099,17 +5276,17 @@
         <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -5120,17 +5297,17 @@
         <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -5141,17 +5318,17 @@
         <v>31</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -5159,20 +5336,20 @@
     </row>
     <row r="15" spans="1:9" ht="196.9" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -5180,20 +5357,20 @@
     </row>
     <row r="16" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A16" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -5235,229 +5412,229 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A11" s="13" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="13" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="13" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="13" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="13" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="13" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="13" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="13" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5465,21 +5642,21 @@
     </row>
     <row r="20" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -5487,103 +5664,103 @@
     </row>
     <row r="22" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="15" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A29" s="13" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A30" s="13" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -5591,7 +5768,7 @@
     </row>
     <row r="31" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -5599,17 +5776,17 @@
     </row>
     <row r="32" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -5617,7 +5794,7 @@
     </row>
     <row r="34" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -5625,19 +5802,19 @@
     </row>
     <row r="35" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A35" s="13" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A36" s="13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -5645,7 +5822,7 @@
     </row>
     <row r="37" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A37" s="13" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -5653,7 +5830,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A38" s="13" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -5661,7 +5838,7 @@
     </row>
     <row r="39" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A39" s="13" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -5669,7 +5846,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A40" s="13" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -5677,7 +5854,7 @@
     </row>
     <row r="41" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A41" s="13" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -5685,31 +5862,31 @@
     </row>
     <row r="42" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A42" s="13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D42" s="12"/>
     </row>
     <row r="43" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A43" s="13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A44" s="13" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -5717,79 +5894,79 @@
     </row>
     <row r="45" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A45" s="13" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="15" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A46" s="13" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A47" s="13" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D47" s="12"/>
     </row>
     <row r="48" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A48" s="13" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="12"/>
     </row>
     <row r="49" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A49" s="13" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="12" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A50" s="13" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="12" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A51" s="13" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>

--- a/ref/Mod_Planing.xlsx
+++ b/ref/Mod_Planing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\elmods\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFAA593-A57B-4AA5-A389-096A8ABB34F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC81B4F3-23E9-4810-A186-00E04BF2C5B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9128" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,17 +609,6 @@
     <t>Golden Cudgel</t>
   </si>
   <si>
-    <t>◆+3 / +1d8 Raidant Dmg
-◆+AC While two-hand wielding.
-◆Giant Slayer*
-◆Lethal Weapon*
-◆Extra Reach
-◆Improved Critical
-◆extra Raidant dmg on crit hit
-◆Giant Form*
-◆Monkey King Smite</t>
-  </si>
-  <si>
     <t>MAG_Combat_Quarterstaff</t>
   </si>
   <si>
@@ -683,13 +672,6 @@
   </si>
   <si>
     <t>Yamantaka Mask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>◆Atker can't land crit on u
-◆Dauntless*: Immune to frightened &amp; other emotion atk
-◆+2 to Saving Throw against Spell
-◆Gain Dark Vision &amp; See Magical Darkness</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1546,35 +1528,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">◆Soul Perception*: Gain a +2 to Atk, Init &amp; Perception Checks.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>◆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-◆Dauntless*: Immune to frightened &amp; other emotion atk
-◆Gain Dark Vision &amp; See Magical Darkness</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wiz01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2886,6 +2839,150 @@
 ◆Immune to Lava Surface or Fire Surface
 ◆Steadfast*: You can't be forcibly moved by spells or actions, and ignore the effects of Difficult Terrain.
 ◆Athletics+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◆Soul Perception*: Gain a +2 to Atk, Init &amp; Perception Checks.
+◆Deathbringer's Sight*
+◆Dauntless*: Immune to frightened &amp; other emotion atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◆Atker can't land crit on u
+◆Dauntless*: Immune to frightened &amp; other emotion atk
+◆Magical Durability*
+◆Gain Dark Vision &amp; See Magical Darkness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆+3 / +1d8 Raidant Dmg
+◆+AC While two-hand wielding.
+◆Giant Slayer*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Lethal Weapon*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Extra Reach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Improved Critical</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆extra Raidant dmg on crit hit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Giant Form*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+◆Monkey King Smite</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3851,51 +3948,51 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="41.65" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -3923,24 +4020,24 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>313</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>315</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="5" t="s">
@@ -3949,86 +4046,86 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="17" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="17" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="17" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -4129,13 +4226,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -4159,10 +4256,10 @@
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -4183,7 +4280,7 @@
         <v>111</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -4204,7 +4301,7 @@
         <v>95</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -4222,10 +4319,10 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -4236,7 +4333,7 @@
         <v>128</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4251,17 +4348,17 @@
         <v>129</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -4289,8 +4386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8F341F-A795-46C8-A6FF-1FA6ADED9C7D}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -4316,13 +4413,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -4339,19 +4436,19 @@
         <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -4362,17 +4459,17 @@
         <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -4383,17 +4480,17 @@
         <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -4404,17 +4501,17 @@
         <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -4425,17 +4522,17 @@
         <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -4446,17 +4543,17 @@
         <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -4467,17 +4564,17 @@
         <v>30</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
         <v>69</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -4488,7 +4585,7 @@
         <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>74</v>
@@ -4498,7 +4595,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.45">
@@ -4506,7 +4603,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>73</v>
@@ -4516,7 +4613,7 @@
         <v>37</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
@@ -4524,17 +4621,17 @@
         <v>35</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
@@ -4542,17 +4639,17 @@
         <v>35</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="91.9" x14ac:dyDescent="0.45">
@@ -4560,17 +4657,17 @@
         <v>35</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
         <v>75</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.45">
@@ -4578,17 +4675,17 @@
         <v>114</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
         <v>115</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.45">
@@ -4596,7 +4693,7 @@
         <v>33</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>77</v>
@@ -4606,7 +4703,7 @@
         <v>80</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
@@ -4614,17 +4711,17 @@
         <v>33</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="91.9" x14ac:dyDescent="0.45">
@@ -4632,17 +4729,17 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
@@ -4650,9 +4747,9 @@
         <v>33</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>71</v>
       </c>
       <c r="D18" s="5"/>
@@ -4660,7 +4757,7 @@
         <v>70</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
@@ -4668,35 +4765,35 @@
         <v>116</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>227</v>
+        <v>144</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>225</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
         <v>117</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="91.9" x14ac:dyDescent="0.45">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A20" s="10" t="s">
         <v>116</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>337</v>
+        <v>147</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>367</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
@@ -4704,17 +4801,17 @@
         <v>116</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>149</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
@@ -4722,17 +4819,17 @@
         <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>148</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
@@ -4742,15 +4839,15 @@
       <c r="B23" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>149</v>
+      <c r="C23" s="20" t="s">
+        <v>368</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="118.15" x14ac:dyDescent="0.45">
@@ -4761,14 +4858,14 @@
         <v>130</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>131</v>
+        <v>369</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4809,13 +4906,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -4835,16 +4932,16 @@
         <v>103</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -4858,16 +4955,16 @@
         <v>112</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -4881,10 +4978,10 @@
         <v>98</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -4894,13 +4991,13 @@
     </row>
     <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -4911,13 +5008,13 @@
     </row>
     <row r="6" spans="1:9" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -4928,20 +5025,20 @@
     </row>
     <row r="7" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>136</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -4952,17 +5049,17 @@
         <v>129</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -5041,13 +5138,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -5071,10 +5168,10 @@
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -5092,10 +5189,10 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -5106,17 +5203,17 @@
         <v>99</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
         <v>113</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -5127,17 +5224,17 @@
         <v>114</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -5148,17 +5245,17 @@
         <v>116</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -5172,14 +5269,14 @@
         <v>119</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
         <v>83</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>120</v>
@@ -5192,17 +5289,17 @@
         <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
         <v>84</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -5213,7 +5310,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>121</v>
@@ -5223,7 +5320,7 @@
         <v>86</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -5237,14 +5334,14 @@
         <v>122</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -5265,7 +5362,7 @@
         <v>88</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -5279,14 +5376,14 @@
         <v>125</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
         <v>85</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -5297,7 +5394,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>126</v>
@@ -5307,7 +5404,7 @@
         <v>90</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -5318,7 +5415,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>127</v>
@@ -5328,7 +5425,7 @@
         <v>89</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -5339,17 +5436,17 @@
         <v>82</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
         <v>92</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -5360,17 +5457,17 @@
         <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -5412,229 +5509,229 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A11" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>270</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>282</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5642,21 +5739,21 @@
     </row>
     <row r="20" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -5664,103 +5761,103 @@
     </row>
     <row r="22" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A29" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A30" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -5768,7 +5865,7 @@
     </row>
     <row r="31" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -5776,17 +5873,17 @@
     </row>
     <row r="32" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -5794,7 +5891,7 @@
     </row>
     <row r="34" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -5802,19 +5899,19 @@
     </row>
     <row r="35" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A35" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A36" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -5822,7 +5919,7 @@
     </row>
     <row r="37" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A37" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -5830,7 +5927,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A38" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -5838,7 +5935,7 @@
     </row>
     <row r="39" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A39" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -5846,7 +5943,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A40" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -5854,7 +5951,7 @@
     </row>
     <row r="41" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A41" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -5862,31 +5959,31 @@
     </row>
     <row r="42" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A42" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="D42" s="12"/>
     </row>
     <row r="43" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A43" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A44" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -5894,79 +5991,79 @@
     </row>
     <row r="45" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A45" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="15" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A46" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A47" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D47" s="12"/>
     </row>
     <row r="48" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A48" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="12"/>
     </row>
     <row r="49" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A49" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A50" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A51" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>

--- a/ref/Mod_Planing.xlsx
+++ b/ref/Mod_Planing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\elmods\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC81B4F3-23E9-4810-A186-00E04BF2C5B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4A5D6C-6A66-435A-BC07-B1232412C130}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9128" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9128" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Class_idea" sheetId="4" r:id="rId1"/>
@@ -481,19 +481,7 @@
     <t>The Outlaw's Gloves</t>
   </si>
   <si>
-    <t>◆Dex &amp; Sleight of hand+2
-◆Atk/Spell ignore All Physic Resistance
-◆Craterous Wounds*: Whenever u Critical, deal additional 1d6 Force dmg.
-◆They won't see me coming: the wearer first weapon atk in combat against a target that haven't taken a turn yet is always critical.(參考Elven Weaponry Ranger Ramor)</t>
-  </si>
-  <si>
     <t>The Flying Knives Gloves</t>
-  </si>
-  <si>
-    <t>◆Dex &amp; Sleight of hand+2
-◆Extra 2d4 dmg to throw atk
-◆Atk/Spell ignore All Physic Resistance
-◆Silent Knife: Use a sneak atk to throw a knife and doesn't break concealment.(參考Elven Weaponry Rogue)</t>
   </si>
   <si>
     <t>Clothing</t>
@@ -1257,17 +1245,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>◆+3 / extra 1d4 Cold Dmg
-◆extra 2 Cold Dmg to Wet creature
-◆Inflict Chilled for 2 turns
-◆If creature hit by the blade has chilled condition, it gains disadvantage on Con Save.(Cursed: Con)
-◆When a creature misses you with an attack, it will be Chilled for 2 turns.
-◆+1AC while in off hand
-◆Gain advantage against Wet creatures.
-◆Homing Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bleeding, Blinding, Burning, Chilling, Reverberation, Shocked</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1301,31 +1278,6 @@
   </si>
   <si>
     <t>Spell Slot, Ki Pool, HP, Action, Bonus Action, Movement Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>◆Infernal Evasion*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-◆Click Heels*
-◆Night Walker*: Can't be Enwebbed, Entangled, or Ensnared and can't slip on Grease or Ice.
-◆Critical Swiftness*: After scoring a Critical Hit or killing a hostile creature, movement speed is restored to maximum.</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1464,45 +1416,6 @@
   </si>
   <si>
     <t>All03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">◆Base AC=14
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>◆Stealth &amp; Init+2
-◆Enemy can't crit u
-◆When u start ur turn in blood surface, u gain the effect of Elixir of Bloodlust (Condition) for 1 turn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>◆Legendary Persistence*: gain all physical resistance &amp; sv bonus("StatusOnEquip" "MAG_BLADE_WARD;MAG_END_GAME_RESISTANCE")</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2981,7 +2894,303 @@
         <charset val="136"/>
       </rPr>
       <t xml:space="preserve">
-◆Monkey King Smite</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Monkey King Smite</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Dex &amp; Sleight of hand+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Exoskeletal Reinforcement*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Craterous Wounds*: Whenever u Critical, deal additional 1d6 Force dmg.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆They won't see me coming: the wearer first weapon atk in combat against a target that haven't taken a turn yet is always critical.(參考Elven Weaponry Ranger Ramor)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">◆Dex &amp; Sleight of hand+2
+◆Extra 2d4 dmg to throw atk
+◆Atk/Spell ignore All Physic Resistance
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Silent Knife: Use a sneak atk to throw a knife and doesn't break concealment.(參考Elven Weaponry Rogue)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Base AC=14
+◆Stealth &amp; Init+2
+◆Enemy can't crit u
+◆When u start ur turn in blood surface, u gain the effect of Elixir of Bloodlust (Condition) for 1 turn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">◆Legendary Persistence*: gain all physical resistance &amp; sv </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◆Infernal Evasion*
+◆Click Heels*
+◆Night Walker*: Can't be Enwebbed, Entangled, or Ensnared and can't slip on Grease or Ice.
+◆Critical Swiftness*: After scoring a Critical Hit or killing a hostile creature, movement speed is restored to maximum.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆+3 / extra 1d4 Cold Dmg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆extra 2 Cold Dmg to Wet creature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Inflict Chilled for 2 turns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+◆If creature hit by the blade has chilled condition, it gains disadvantage on Con Save.(Cursed: Con)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆When a creature misses you with an attack, it will be Chilled for 2 turns.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆+1AC while in off hand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Gain advantage against Wet creatures.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Homing Weapon</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3948,51 +4157,51 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="41.65" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="18" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>316</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -4020,24 +4229,24 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="5" t="s">
@@ -4046,86 +4255,86 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="17" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="5" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="17" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="5" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="5" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="17" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -4226,13 +4435,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -4256,10 +4465,10 @@
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -4267,20 +4476,20 @@
     </row>
     <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -4288,7 +4497,7 @@
     </row>
     <row r="4" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>96</v>
@@ -4301,7 +4510,7 @@
         <v>95</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -4309,7 +4518,7 @@
     </row>
     <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>97</v>
@@ -4319,10 +4528,10 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -4330,10 +4539,10 @@
     </row>
     <row r="6" spans="1:9" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4345,20 +4554,20 @@
     </row>
     <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -4386,7 +4595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8F341F-A795-46C8-A6FF-1FA6ADED9C7D}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -4413,13 +4622,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -4436,19 +4645,19 @@
         <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>168</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -4459,17 +4668,17 @@
         <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -4480,17 +4689,17 @@
         <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -4501,17 +4710,17 @@
         <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -4522,17 +4731,17 @@
         <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -4543,17 +4752,17 @@
         <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -4564,17 +4773,17 @@
         <v>30</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
         <v>69</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -4585,7 +4794,7 @@
         <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>74</v>
@@ -4595,7 +4804,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.45">
@@ -4603,7 +4812,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>73</v>
@@ -4613,7 +4822,7 @@
         <v>37</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
@@ -4621,17 +4830,17 @@
         <v>35</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
@@ -4639,17 +4848,17 @@
         <v>35</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="91.9" x14ac:dyDescent="0.45">
@@ -4657,35 +4866,35 @@
         <v>35</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
         <v>75</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.45">
@@ -4693,7 +4902,7 @@
         <v>33</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>77</v>
@@ -4703,7 +4912,7 @@
         <v>80</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
@@ -4711,17 +4920,17 @@
         <v>33</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="91.9" x14ac:dyDescent="0.45">
@@ -4729,17 +4938,17 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
@@ -4747,7 +4956,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>71</v>
@@ -4757,115 +4966,115 @@
         <v>70</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A20" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A21" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A22" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>146</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>148</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A23" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="C23" s="20" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A24" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4879,7 +5088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE404FD-ED0E-4839-AB3C-E49A1E70FD14}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -4906,13 +5115,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -4932,16 +5141,16 @@
         <v>103</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -4949,22 +5158,22 @@
     </row>
     <row r="3" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -4972,16 +5181,16 @@
     </row>
     <row r="4" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -4991,13 +5200,13 @@
     </row>
     <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -5008,13 +5217,13 @@
     </row>
     <row r="6" spans="1:9" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -5025,20 +5234,20 @@
     </row>
     <row r="7" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -5046,20 +5255,20 @@
     </row>
     <row r="8" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -5111,8 +5320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E9ECE5-FC43-4264-9D24-F0288F58DB85}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -5138,13 +5347,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -5164,14 +5373,14 @@
         <v>104</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>105</v>
+        <v>365</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -5182,38 +5391,38 @@
         <v>100</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>107</v>
+        <v>366</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="144.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -5221,20 +5430,20 @@
     </row>
     <row r="5" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>297</v>
+        <v>222</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>368</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -5242,20 +5451,20 @@
     </row>
     <row r="6" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>226</v>
+        <v>264</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>224</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -5266,20 +5475,20 @@
         <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>287</v>
+        <v>369</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
         <v>83</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -5289,17 +5498,17 @@
         <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
         <v>84</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -5310,17 +5519,17 @@
         <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
         <v>86</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -5331,17 +5540,17 @@
         <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -5352,17 +5561,17 @@
         <v>31</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
         <v>88</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -5373,17 +5582,17 @@
         <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
         <v>85</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -5394,17 +5603,17 @@
         <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
         <v>90</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -5415,17 +5624,17 @@
         <v>31</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -5436,17 +5645,17 @@
         <v>82</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
         <v>92</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -5457,17 +5666,17 @@
         <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -5509,229 +5718,229 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A11" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>268</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>280</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5739,21 +5948,21 @@
     </row>
     <row r="20" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -5761,103 +5970,103 @@
     </row>
     <row r="22" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A29" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A30" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -5865,7 +6074,7 @@
     </row>
     <row r="31" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -5873,17 +6082,17 @@
     </row>
     <row r="32" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -5891,7 +6100,7 @@
     </row>
     <row r="34" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -5899,19 +6108,19 @@
     </row>
     <row r="35" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A35" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A36" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -5919,7 +6128,7 @@
     </row>
     <row r="37" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A37" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -5927,7 +6136,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A38" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -5935,7 +6144,7 @@
     </row>
     <row r="39" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A39" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -5943,7 +6152,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A40" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -5951,7 +6160,7 @@
     </row>
     <row r="41" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A41" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -5959,31 +6168,31 @@
     </row>
     <row r="42" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A42" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="D42" s="12"/>
     </row>
     <row r="43" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A43" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A44" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -5991,79 +6200,79 @@
     </row>
     <row r="45" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A45" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="15" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A46" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A47" s="13" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D47" s="12"/>
     </row>
     <row r="48" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A48" s="13" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="12"/>
     </row>
     <row r="49" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A49" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A50" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A51" s="13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>

--- a/ref/Mod_Planing.xlsx
+++ b/ref/Mod_Planing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\elmods\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4A5D6C-6A66-435A-BC07-B1232412C130}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60336DE9-DCAB-43C9-AF0C-B89F45FC6948}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9128" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1207,17 +1207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>◆+3
-◆extra 2 Dmg to Bleed creature
-◆Gain advantage against Bleed creature
-◆Inflict Wet &amp; create Water Surface on hit(MAG_LC_Wave_Trident_Passive)
-◆+AC while in off hand
-◆Gain Parry (Parry_Githyanki_Supreme)
-◆Homing Weapon
-◆Give Spell: Perfectly Balanced Atk(UnlockSpell(Target_MAG_PHB_ScimitarOfSpeed_BonusAttack))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Parry_Githyanki_Supreme</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3116,7 +3105,6 @@
         <charset val="136"/>
       </rPr>
       <t xml:space="preserve">
-◆If creature hit by the blade has chilled condition, it gains disadvantage on Con Save.(Cursed: Con)
 </t>
     </r>
     <r>
@@ -3127,7 +3115,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>◆When a creature misses you with an attack, it will be Chilled for 2 turns.</t>
+      <t>◆If creature hit by the blade has chilled condition, it gains disadvantage on Con Save.(Cursed: Con) for 2 turns</t>
     </r>
     <r>
       <rPr>
@@ -3148,7 +3136,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>◆+1AC while in off hand</t>
+      <t>◆When a creature misses you with an attack, it will be Chilled for 2 turns.</t>
     </r>
     <r>
       <rPr>
@@ -3169,7 +3157,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>◆Gain advantage against Wet creatures.</t>
+      <t>◆+1AC while in off hand</t>
     </r>
     <r>
       <rPr>
@@ -3190,7 +3178,58 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
+      <t>◆Gain advantage against Wet creatures.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
       <t>◆Homing Weapon</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆+3
+◆extra 2 Dmg to Bleed creature
+◆Gain advantage against Bleed creature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+◆Inflict Wet &amp; create Water Surface on hit(MAG_LC_Wave_Trident_Passive)
+◆+AC while in off hand
+◆Gain Parry (Parry_Githyanki_Supreme)
+◆Homing Weapon
+◆Give Spell: Perfectly Balanced Atk(UnlockSpell(Target_MAG_PHB_ScimitarOfSpeed_BonusAttack))</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4157,16 +4196,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>165</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>29</v>
@@ -4177,31 +4216,31 @@
     </row>
     <row r="2" spans="1:6" ht="41.65" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -4229,24 +4268,24 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>165</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="5" t="s">
@@ -4255,86 +4294,86 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>321</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>322</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -4560,7 +4599,7 @@
         <v>135</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
@@ -4648,7 +4687,7 @@
         <v>164</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>166</v>
@@ -4671,7 +4710,7 @@
         <v>163</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
@@ -4692,7 +4731,7 @@
         <v>162</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
@@ -4713,7 +4752,7 @@
         <v>161</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
@@ -4734,7 +4773,7 @@
         <v>160</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
@@ -4755,7 +4794,7 @@
         <v>159</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
@@ -4776,7 +4815,7 @@
         <v>154</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
@@ -4833,7 +4872,7 @@
         <v>156</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
@@ -4851,7 +4890,7 @@
         <v>157</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
@@ -4869,7 +4908,7 @@
         <v>158</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
@@ -4887,7 +4926,7 @@
         <v>152</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
@@ -4923,7 +4962,7 @@
         <v>150</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
@@ -4941,7 +4980,7 @@
         <v>149</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
@@ -4995,7 +5034,7 @@
         <v>145</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
@@ -5049,7 +5088,7 @@
         <v>116</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
@@ -5067,7 +5106,7 @@
         <v>128</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
@@ -5141,10 +5180,10 @@
         <v>103</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>198</v>
@@ -5164,10 +5203,10 @@
         <v>110</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>200</v>
@@ -5187,10 +5226,10 @@
         <v>98</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -5200,13 +5239,13 @@
     </row>
     <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>306</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -5217,13 +5256,13 @@
     </row>
     <row r="6" spans="1:9" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>311</v>
-      </c>
       <c r="C6" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -5240,7 +5279,7 @@
         <v>133</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
@@ -5261,7 +5300,7 @@
         <v>134</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
@@ -5320,8 +5359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E9ECE5-FC43-4264-9D24-F0288F58DB85}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -5373,7 +5412,7 @@
         <v>104</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
@@ -5394,7 +5433,7 @@
         <v>105</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
@@ -5415,7 +5454,7 @@
         <v>221</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
@@ -5436,14 +5475,14 @@
         <v>222</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>294</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>295</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -5478,7 +5517,7 @@
         <v>117</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
@@ -5498,10 +5537,10 @@
         <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>279</v>
+        <v>369</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
@@ -5519,7 +5558,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>119</v>
@@ -5543,7 +5582,7 @@
         <v>120</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
@@ -5585,7 +5624,7 @@
         <v>123</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
@@ -5603,7 +5642,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>124</v>
@@ -5624,7 +5663,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>125</v>
@@ -5648,7 +5687,7 @@
         <v>130</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
@@ -5769,7 +5808,7 @@
         <v>233</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>247</v>
@@ -5781,7 +5820,7 @@
         <v>233</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>247</v>
@@ -5793,13 +5832,13 @@
         <v>237</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>247</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
@@ -5807,7 +5846,7 @@
         <v>237</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>247</v>
@@ -5829,7 +5868,7 @@
         <v>237</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>247</v>
@@ -5897,7 +5936,7 @@
         <v>267</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -5911,7 +5950,7 @@
         <v>267</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -5919,7 +5958,7 @@
         <v>237</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>267</v>
@@ -5928,10 +5967,10 @@
     </row>
     <row r="18" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>247</v>
@@ -5962,7 +6001,7 @@
     </row>
     <row r="21" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -5989,7 +6028,7 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
@@ -6057,7 +6096,7 @@
         <v>255</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>267</v>
@@ -6203,11 +6242,11 @@
         <v>252</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
@@ -6221,12 +6260,12 @@
         <v>267</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A47" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>229</v>
@@ -6238,7 +6277,7 @@
     </row>
     <row r="48" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A48" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>250</v>
@@ -6272,7 +6311,7 @@
     </row>
     <row r="51" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A51" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>

--- a/ref/Mod_Planing.xlsx
+++ b/ref/Mod_Planing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\elmods\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60336DE9-DCAB-43C9-AF0C-B89F45FC6948}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2542EDEA-F3F4-463A-A57C-46B9E899DCAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9128" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -540,29 +540,10 @@
 data "Weapon Properties" "Finesse;Light;Thrown;Melee;Dippable;Magical"</t>
   </si>
   <si>
-    <t>◆+3 / extra 1d4 Necrotic Dmg
-◆extra 1d4 Necrotic Dmg when dealing Necrotic Dmg
-◆Inflict Flesh Rot (Diseased)
-◆Gain advantage against Diseased creatures.
-◆+AC while in off hand
-◆RegainHitPoints on atk(check fed's rogue mod)
-◆Homing Weapon</t>
-  </si>
-  <si>
     <t>Vajra</t>
   </si>
   <si>
     <t>Indra</t>
-  </si>
-  <si>
-    <t>◆+3 / extra 1d4 Lightening Dmg
-◆extra 2 Lightening Dmg to Wet creature
-◆Inflict Shocked for n turns
-◆Gain advantage against Shocked creatures.
-◆gain Lightening Charge
-◆Improved Critical
-◆extra dmg on crit hit
-◆Homing Weapon</t>
   </si>
   <si>
     <t>Reduvia</t>
@@ -1418,18 +1399,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>◆+3 / extra 1d4 Piercing Dmg
-◆extra 2 Dmg to Bleed creature
-◆Inflict Bleed for n turns
-◆Vulnerability to piercing
-◆Improved Critical
-◆extra dmg on crit hit
-◆Gain Adv against bleeding creature
-◆Gain Action:Shadowsoaked Blow
-◆UnlockSpell(Target_MAG_WeaponAction_Bloodrend)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wiz01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3204,32 +3173,105 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>◆+3
+    <t>◆+3
 ◆extra 2 Dmg to Bleed creature
-◆Gain advantage against Bleed creature</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
+◆Gain advantage against Bleed creature
 ◆Inflict Wet &amp; create Water Surface on hit(MAG_LC_Wave_Trident_Passive)
 ◆+AC while in off hand
 ◆Gain Parry (Parry_Githyanki_Supreme)
 ◆Homing Weapon
 ◆Give Spell: Perfectly Balanced Atk(UnlockSpell(Target_MAG_PHB_ScimitarOfSpeed_BonusAttack))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◆+3 / extra 1d4 Necrotic Dmg
+◆extra 1d4 Necrotic Dmg when dealing Necrotic Dmg
+◆Inflict Flesh Rot (Diseased)
+◆Gain advantage against Diseased creatures.
+◆+AC while in off hand
+◆RegainHitPoints on atk(check fed's rogue mod)
+◆Homing Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◆+3 / extra 1d4 Lightening Dmg
+◆extra 2 Lightening Dmg to Wet creature
+◆Inflict Shocked for 3 turns
+◆Gain advantage against Shocked creatures.
+◆gain Lightening Charge
+◆Improved Critical
+◆extra dmg on crit hit
+◆Homing Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆+3 / extra 1d4 Piercing Dmg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆extra 2 Dmg to Bleed creature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Inflict Bleed for 3 turns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+◆Vulnerability to piercing
+◆Improved Critical
+◆extra dmg on crit hit
+◆Gain Adv against bleeding creature
+◆Gain Action:Shadowsoaked Blow
+◆UnlockSpell(Target_MAG_WeaponAction_Bloodrend)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4196,51 +4238,51 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="41.65" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -4268,24 +4310,24 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>306</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>308</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="5" t="s">
@@ -4294,86 +4336,86 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="17" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -4474,13 +4516,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -4504,10 +4546,10 @@
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -4528,7 +4570,7 @@
         <v>109</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -4549,7 +4591,7 @@
         <v>95</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -4567,10 +4609,10 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -4578,10 +4620,10 @@
     </row>
     <row r="6" spans="1:9" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4593,20 +4635,20 @@
     </row>
     <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -4661,13 +4703,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -4684,19 +4726,19 @@
         <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -4707,17 +4749,17 @@
         <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -4728,17 +4770,17 @@
         <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -4749,17 +4791,17 @@
         <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -4770,17 +4812,17 @@
         <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -4791,17 +4833,17 @@
         <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -4812,17 +4854,17 @@
         <v>30</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
         <v>69</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -4833,7 +4875,7 @@
         <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>74</v>
@@ -4843,7 +4885,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.45">
@@ -4851,7 +4893,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>73</v>
@@ -4861,7 +4903,7 @@
         <v>37</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
@@ -4869,17 +4911,17 @@
         <v>35</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
@@ -4887,17 +4929,17 @@
         <v>35</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="91.9" x14ac:dyDescent="0.45">
@@ -4905,17 +4947,17 @@
         <v>35</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
         <v>75</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.45">
@@ -4923,17 +4965,17 @@
         <v>112</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
         <v>113</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.45">
@@ -4941,7 +4983,7 @@
         <v>33</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>77</v>
@@ -4951,7 +4993,7 @@
         <v>80</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
@@ -4959,17 +5001,17 @@
         <v>33</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="91.9" x14ac:dyDescent="0.45">
@@ -4977,17 +5019,17 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
@@ -4995,7 +5037,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>71</v>
@@ -5005,7 +5047,7 @@
         <v>70</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
@@ -5013,17 +5055,17 @@
         <v>114</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
         <v>115</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
@@ -5031,17 +5073,17 @@
         <v>114</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
@@ -5049,17 +5091,17 @@
         <v>114</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
@@ -5067,17 +5109,17 @@
         <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>144</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>146</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
@@ -5088,32 +5130,32 @@
         <v>116</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A24" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -5127,7 +5169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE404FD-ED0E-4839-AB3C-E49A1E70FD14}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -5154,13 +5196,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -5180,16 +5222,16 @@
         <v>103</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -5203,16 +5245,16 @@
         <v>110</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -5226,10 +5268,10 @@
         <v>98</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -5239,13 +5281,13 @@
     </row>
     <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -5256,13 +5298,13 @@
     </row>
     <row r="6" spans="1:9" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -5273,20 +5315,20 @@
     </row>
     <row r="7" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -5294,20 +5336,20 @@
     </row>
     <row r="8" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -5359,8 +5401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E9ECE5-FC43-4264-9D24-F0288F58DB85}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -5386,13 +5428,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -5412,14 +5454,14 @@
         <v>104</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -5433,14 +5475,14 @@
         <v>105</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -5451,17 +5493,17 @@
         <v>99</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
         <v>111</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -5472,17 +5514,17 @@
         <v>112</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -5493,17 +5535,17 @@
         <v>114</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -5517,14 +5559,14 @@
         <v>117</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
         <v>83</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>118</v>
@@ -5537,17 +5579,17 @@
         <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>369</v>
+        <v>315</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
         <v>84</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -5558,17 +5600,17 @@
         <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>119</v>
+        <v>314</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>367</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
         <v>86</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -5579,17 +5621,17 @@
         <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>283</v>
+        <v>119</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>281</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -5600,17 +5642,17 @@
         <v>31</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>368</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
         <v>88</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -5621,17 +5663,17 @@
         <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
         <v>85</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -5642,17 +5684,17 @@
         <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
         <v>90</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -5663,17 +5705,17 @@
         <v>31</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -5684,17 +5726,17 @@
         <v>82</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
         <v>92</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -5705,17 +5747,17 @@
         <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -5757,229 +5799,229 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A11" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>266</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>278</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5987,21 +6029,21 @@
     </row>
     <row r="20" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -6009,103 +6051,103 @@
     </row>
     <row r="22" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A29" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A30" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -6113,7 +6155,7 @@
     </row>
     <row r="31" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -6121,17 +6163,17 @@
     </row>
     <row r="32" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -6139,7 +6181,7 @@
     </row>
     <row r="34" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -6147,19 +6189,19 @@
     </row>
     <row r="35" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A35" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A36" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -6167,7 +6209,7 @@
     </row>
     <row r="37" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A37" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -6175,7 +6217,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A38" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -6183,7 +6225,7 @@
     </row>
     <row r="39" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A39" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -6191,7 +6233,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A40" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -6199,7 +6241,7 @@
     </row>
     <row r="41" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A41" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -6207,31 +6249,31 @@
     </row>
     <row r="42" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A42" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="D42" s="12"/>
     </row>
     <row r="43" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A43" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A44" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -6239,79 +6281,79 @@
     </row>
     <row r="45" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A45" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A46" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A47" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D47" s="12"/>
     </row>
     <row r="48" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A48" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="12"/>
     </row>
     <row r="49" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A49" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A50" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A51" s="13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>

--- a/ref/Mod_Planing.xlsx
+++ b/ref/Mod_Planing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\elmods\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2542EDEA-F3F4-463A-A57C-46B9E899DCAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DDBAAC-EBA9-4B5F-A1BB-E99E1D61E35F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9128" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,16 +549,6 @@
     <t>Reduvia</t>
   </si>
   <si>
-    <t>◆+3 / extra 1d4 Fire Dmg
-◆extra 2 Dmg to Burning creature
-◆Inflict Burning for 2 turns
-◆Gain advantage against Burning creatures.
-◆Heightened Evocation: Creatures have Disadvantage on Saving Throws against your Evocation spells.
-◆+AC while in off hand
-◆Homing Weapon
-◆Incinerate* (Per Long Rest)</t>
-  </si>
-  <si>
     <t>◆+3 / extra 1d4 Psychic Dmg
 ◆extra 2 Dmg to Mental Fatigue creature
 ◆Inflict Mental Fatigue for 2 turns (MAG_PSYCHIC_MENTAL_FATIGUE)
@@ -3205,73 +3195,144 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>◆+3 / extra 1d4 Piercing Dmg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>◆extra 2 Dmg to Bleed creature</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>◆Inflict Bleed for 3 turns</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t>◆+3 / extra 1d4 Piercing Dmg
+◆extra 2 Dmg to Bleed creature
+◆Inflict Bleed for 3 turns
 ◆Vulnerability to piercing
 ◆Improved Critical
 ◆extra dmg on crit hit
 ◆Gain Adv against bleeding creature
 ◆Gain Action:Shadowsoaked Blow
 ◆UnlockSpell(Target_MAG_WeaponAction_Bloodrend)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆+3 / extra 1d4 Fire Dmg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆extra 2 Dmg to Burning creature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Inflict Burning for 2 turns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Gain advantage against Burning creatures.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Heightened Evocation: Creatures have Disadvantage on Saving Throws against your Evocation spells.
+◆+AC while in off hand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆Homing Weapon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+◆Incinerate* (Per Long Rest)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4238,51 +4299,51 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>298</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>299</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="41.65" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -4310,24 +4371,24 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>298</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="5" t="s">
@@ -4336,86 +4397,86 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>318</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>319</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -4516,13 +4577,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -4546,10 +4607,10 @@
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -4570,7 +4631,7 @@
         <v>109</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -4591,7 +4652,7 @@
         <v>95</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -4609,10 +4670,10 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -4620,10 +4681,10 @@
     </row>
     <row r="6" spans="1:9" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4635,20 +4696,20 @@
     </row>
     <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -4703,13 +4764,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -4726,19 +4787,19 @@
         <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -4749,17 +4810,17 @@
         <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -4770,17 +4831,17 @@
         <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -4791,17 +4852,17 @@
         <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -4812,17 +4873,17 @@
         <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -4833,17 +4894,17 @@
         <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -4854,17 +4915,17 @@
         <v>30</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
         <v>69</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -4875,7 +4936,7 @@
         <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>74</v>
@@ -4885,7 +4946,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.45">
@@ -4893,7 +4954,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>73</v>
@@ -4903,7 +4964,7 @@
         <v>37</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
@@ -4911,17 +4972,17 @@
         <v>35</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
@@ -4929,17 +4990,17 @@
         <v>35</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="91.9" x14ac:dyDescent="0.45">
@@ -4947,17 +5008,17 @@
         <v>35</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
         <v>75</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.45">
@@ -4965,17 +5026,17 @@
         <v>112</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
         <v>113</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.45">
@@ -4983,7 +5044,7 @@
         <v>33</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>77</v>
@@ -4993,7 +5054,7 @@
         <v>80</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
@@ -5001,17 +5062,17 @@
         <v>33</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="91.9" x14ac:dyDescent="0.45">
@@ -5019,17 +5080,17 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
@@ -5037,7 +5098,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>71</v>
@@ -5047,7 +5108,7 @@
         <v>70</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
@@ -5055,17 +5116,17 @@
         <v>114</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
         <v>115</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
@@ -5073,17 +5134,17 @@
         <v>114</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
@@ -5091,17 +5152,17 @@
         <v>114</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
@@ -5109,17 +5170,17 @@
         <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
@@ -5130,32 +5191,32 @@
         <v>116</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A24" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="C24" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -5196,13 +5257,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -5222,16 +5283,16 @@
         <v>103</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -5245,16 +5306,16 @@
         <v>110</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>199</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -5268,10 +5329,10 @@
         <v>98</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -5281,13 +5342,13 @@
     </row>
     <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>303</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -5298,13 +5359,13 @@
     </row>
     <row r="6" spans="1:9" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>308</v>
-      </c>
       <c r="C6" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -5315,20 +5376,20 @@
     </row>
     <row r="7" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -5336,20 +5397,20 @@
     </row>
     <row r="8" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -5401,8 +5462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E9ECE5-FC43-4264-9D24-F0288F58DB85}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -5428,13 +5489,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -5454,14 +5515,14 @@
         <v>104</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -5475,14 +5536,14 @@
         <v>105</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -5493,17 +5554,17 @@
         <v>99</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
         <v>111</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -5514,17 +5575,17 @@
         <v>112</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>291</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>292</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -5535,17 +5596,17 @@
         <v>114</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -5559,14 +5620,14 @@
         <v>117</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
         <v>83</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>118</v>
@@ -5579,17 +5640,17 @@
         <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
         <v>84</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -5600,17 +5661,17 @@
         <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
         <v>86</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -5624,14 +5685,14 @@
         <v>119</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -5645,14 +5706,14 @@
         <v>120</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
         <v>88</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -5665,15 +5726,15 @@
       <c r="B12" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>369</v>
+      <c r="C12" s="20" t="s">
+        <v>368</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
         <v>85</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -5684,17 +5745,17 @@
         <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>122</v>
+        <v>369</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
         <v>90</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -5705,17 +5766,17 @@
         <v>31</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -5726,17 +5787,17 @@
         <v>82</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
         <v>92</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -5747,17 +5808,17 @@
         <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -5799,229 +5860,229 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>224</v>
-      </c>
       <c r="C1" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>225</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>294</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A11" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="12" t="s">
         <v>265</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>276</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -6029,21 +6090,21 @@
     </row>
     <row r="20" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>225</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -6051,103 +6112,103 @@
     </row>
     <row r="22" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A29" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A30" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -6155,7 +6216,7 @@
     </row>
     <row r="31" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -6163,17 +6224,17 @@
     </row>
     <row r="32" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -6181,7 +6242,7 @@
     </row>
     <row r="34" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -6189,19 +6250,19 @@
     </row>
     <row r="35" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A35" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A36" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -6209,7 +6270,7 @@
     </row>
     <row r="37" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A37" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -6217,7 +6278,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A38" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -6225,7 +6286,7 @@
     </row>
     <row r="39" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A39" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -6233,7 +6294,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A40" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -6241,7 +6302,7 @@
     </row>
     <row r="41" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A41" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -6249,31 +6310,31 @@
     </row>
     <row r="42" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A42" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D42" s="12"/>
     </row>
     <row r="43" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A43" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A44" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -6281,79 +6342,79 @@
     </row>
     <row r="45" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A45" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A46" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A47" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D47" s="12"/>
     </row>
     <row r="48" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A48" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="12"/>
     </row>
     <row r="49" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A49" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A50" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A51" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>

--- a/ref/Mod_Planing.xlsx
+++ b/ref/Mod_Planing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\elmods\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DDBAAC-EBA9-4B5F-A1BB-E99E1D61E35F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E73166-3B63-410D-8D0D-73890111F660}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9128" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,9 +432,6 @@
     <t>MAG_PHB_OfSpeed_Scimitar</t>
   </si>
   <si>
-    <t>WPN_HUM_Scimitar_Adamantine_A</t>
-  </si>
-  <si>
     <t>◆
 ◆
 ◆
@@ -549,16 +546,6 @@
     <t>Reduvia</t>
   </si>
   <si>
-    <t>◆+3 / extra 1d4 Psychic Dmg
-◆extra 2 Dmg to Mental Fatigue creature
-◆Inflict Mental Fatigue for 2 turns (MAG_PSYCHIC_MENTAL_FATIGUE)
-◆If creature hit by the blade has Mental Fatigue condition, it gains disadvantage on Wil Save.(SG_Cursed: WIS)
-◆Gain advantage against Mental Fatigue creatures.
-◆Vulnerability to Psychic
-◆Homing Weapon
-◆恐懼Atk (參考 Lightning Set)</t>
-  </si>
-  <si>
     <t>Cloak</t>
   </si>
   <si>
@@ -572,15 +559,6 @@
   </si>
   <si>
     <t>xxx</t>
-  </si>
-  <si>
-    <t>◆+3 / +1d6 dmg
-◆Organ Rearranger*: Crit range -1
-◆extra 2 slash dmg while dual wielding scimitar
-◆+AC while in off hand
-◆gain the proficiency of this weapon
-◆Gain Parry (Parry_Githyanki_Supreme)
-◆Give Spell: Perfectly Balanced Atk(UnlockSpell(Target_MAG_PHB_ScimitarOfSpeed_BonusAttack))</t>
   </si>
   <si>
     <t>Flails</t>
@@ -1376,16 +1354,6 @@
   </si>
   <si>
     <t>All03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>◆+3 / +1d6 dmg
-◆Organ Rearranger*: Crit range -1
-◆Dolor Amarus*: Extra 7 Dmg on crit
-◆gain the proficiency of this weapon
-◆When you make atk with Advantage, target takes an additional 7 Slashing dmg.
-◆Take 1d10 piercing dmg to gain sebuku status for 10 turns (also create blood surface around u): gain advantage on atk rolls &amp; extra 1d6 slash dmg, inflict bleeding DC15+proficiency bonus
-◆Atk 4 times(參考Target_LOW_DeathbringerAssault_Orin)(per battle)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3207,15 +3175,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>◆+3 / extra 1d4 Fire Dmg</t>
+    <t>◆+3 / extra 1d4 Fire Dmg
+◆extra 2 Dmg to Burning creature
+◆Inflict Burning for 2 turns
+◆Gain advantage against Burning creatures.
+◆Heightened Evocation: Creatures have Disadvantage on Saving Throws against your Evocation spells.
+◆+AC while in off hand
+◆Homing Weapon
+◆Incinerate* (Per Long Rest)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◆+3 / extra 1d4 Psychic Dmg
+◆extra 2 Dmg to Mental Fatigue creature
+◆Inflict Mental Fatigue for 2 turns (MAG_PSYCHIC_MENTAL_FATIGUE)
+◆If creature hit by the blade has Mental Fatigue condition, it gains disadvantage on Wil Save.(SG_Cursed: WIS)
+◆Gain advantage against Mental Fatigue creatures.
+◆Vulnerability to Psychic
+◆Homing Weapon
+◆恐懼Atk (參考 Lightning Set)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPN_HUM_Scimitar_Adamantine_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆+3 / +1d6 dmg</t>
     </r>
     <r>
       <rPr>
@@ -3236,7 +3230,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>◆extra 2 Dmg to Burning creature</t>
+      <t>◆Organ Rearranger*: Crit range -1</t>
     </r>
     <r>
       <rPr>
@@ -3257,7 +3251,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>◆Inflict Burning for 2 turns</t>
+      <t>◆Dolor Amarus*: Extra 7 Dmg on crit</t>
     </r>
     <r>
       <rPr>
@@ -3278,7 +3272,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>◆Gain advantage against Burning creatures.</t>
+      <t>◆gain the proficiency of this weapon</t>
     </r>
     <r>
       <rPr>
@@ -3289,18 +3283,24 @@
         <charset val="136"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>◆Heightened Evocation: Creatures have Disadvantage on Saving Throws against your Evocation spells.
-◆+AC while in off hand</t>
+◆When you make atk with Advantage, target takes an additional 7 Slashing dmg.
+◆Take 1d10 piercing dmg to gain sebuku status for 10 turns (also create blood surface around u): gain advantage on atk rolls &amp; extra 1d6 slash dmg, inflict bleeding DC15+proficiency bonus
+◆Atk 4 times(參考Target_LOW_DeathbringerAssault_Orin)(per battle)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">◆+3 / +1d6 dmg
+◆Organ Rearranger*: Crit range -1
+</t>
     </r>
     <r>
       <rPr>
@@ -3310,18 +3310,18 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>◆Homing Weapon</t>
+      <t xml:space="preserve">◆extra 2 slash dmg while dual wielding scimitar
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆+AC while in off hand</t>
     </r>
     <r>
       <rPr>
@@ -3332,7 +3332,29 @@
         <charset val="136"/>
       </rPr>
       <t xml:space="preserve">
-◆Incinerate* (Per Long Rest)</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◆gain the proficiency of this weapon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei Light"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+◆Gain Parry (Parry_Githyanki_Supreme)
+◆Give Spell: Perfectly Balanced Atk(UnlockSpell(Target_MAG_PHB_ScimitarOfSpeed_BonusAttack))</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4299,51 +4321,51 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="41.65" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -4371,24 +4393,24 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="5" t="s">
@@ -4397,86 +4419,86 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="17" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="17" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -4577,13 +4599,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -4597,20 +4619,20 @@
     </row>
     <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -4618,20 +4640,20 @@
     </row>
     <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -4639,20 +4661,20 @@
     </row>
     <row r="4" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -4660,20 +4682,20 @@
     </row>
     <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -4681,10 +4703,10 @@
     </row>
     <row r="6" spans="1:9" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4696,20 +4718,20 @@
     </row>
     <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -4764,13 +4786,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -4787,19 +4809,19 @@
         <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -4810,17 +4832,17 @@
         <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -4831,17 +4853,17 @@
         <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -4852,17 +4874,17 @@
         <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -4873,17 +4895,17 @@
         <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -4894,17 +4916,17 @@
         <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -4915,17 +4937,17 @@
         <v>30</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
         <v>69</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -4936,7 +4958,7 @@
         <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>74</v>
@@ -4946,7 +4968,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.45">
@@ -4954,7 +4976,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>73</v>
@@ -4964,7 +4986,7 @@
         <v>37</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
@@ -4972,17 +4994,17 @@
         <v>35</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
@@ -4990,17 +5012,17 @@
         <v>35</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="91.9" x14ac:dyDescent="0.45">
@@ -5008,35 +5030,35 @@
         <v>35</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
         <v>75</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.45">
@@ -5044,7 +5066,7 @@
         <v>33</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>77</v>
@@ -5054,7 +5076,7 @@
         <v>80</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
@@ -5062,17 +5084,17 @@
         <v>33</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="91.9" x14ac:dyDescent="0.45">
@@ -5080,17 +5102,17 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
@@ -5098,7 +5120,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>71</v>
@@ -5108,115 +5130,115 @@
         <v>70</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A20" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A21" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A22" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A23" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A24" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -5257,13 +5279,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -5277,22 +5299,22 @@
     </row>
     <row r="2" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -5300,22 +5322,22 @@
     </row>
     <row r="3" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -5323,16 +5345,16 @@
     </row>
     <row r="4" spans="1:9" ht="131.25" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -5342,13 +5364,13 @@
     </row>
     <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -5359,13 +5381,13 @@
     </row>
     <row r="6" spans="1:9" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -5376,20 +5398,20 @@
     </row>
     <row r="7" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -5397,20 +5419,20 @@
     </row>
     <row r="8" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -5462,8 +5484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E9ECE5-FC43-4264-9D24-F0288F58DB85}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -5489,13 +5511,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -5509,20 +5531,20 @@
     </row>
     <row r="2" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -5530,20 +5552,20 @@
     </row>
     <row r="3" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -5551,20 +5573,20 @@
     </row>
     <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -5572,20 +5594,20 @@
     </row>
     <row r="5" spans="1:9" ht="118.15" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -5593,20 +5615,20 @@
     </row>
     <row r="6" spans="1:9" ht="78.75" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -5617,20 +5639,20 @@
         <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
         <v>83</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -5640,17 +5662,17 @@
         <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
         <v>84</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -5661,17 +5683,17 @@
         <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
         <v>86</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -5682,17 +5704,17 @@
         <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -5703,17 +5725,17 @@
         <v>31</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
         <v>88</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -5724,17 +5746,17 @@
         <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
         <v>85</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -5745,17 +5767,17 @@
         <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>369</v>
+        <v>312</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>365</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
         <v>90</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -5766,17 +5788,17 @@
         <v>31</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>122</v>
+        <v>313</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -5787,17 +5809,17 @@
         <v>82</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>92</v>
+        <v>367</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -5808,17 +5830,17 @@
         <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>128</v>
+        <v>369</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -5860,229 +5882,229 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A11" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="13" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -6090,21 +6112,21 @@
     </row>
     <row r="20" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -6112,103 +6134,103 @@
     </row>
     <row r="22" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="15" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A29" s="13" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A30" s="13" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -6216,7 +6238,7 @@
     </row>
     <row r="31" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -6224,17 +6246,17 @@
     </row>
     <row r="32" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -6242,7 +6264,7 @@
     </row>
     <row r="34" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -6250,19 +6272,19 @@
     </row>
     <row r="35" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A35" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A36" s="13" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -6270,7 +6292,7 @@
     </row>
     <row r="37" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A37" s="13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -6278,7 +6300,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A38" s="13" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -6286,7 +6308,7 @@
     </row>
     <row r="39" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A39" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -6294,7 +6316,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A40" s="13" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -6302,7 +6324,7 @@
     </row>
     <row r="41" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A41" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -6310,31 +6332,31 @@
     </row>
     <row r="42" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A42" s="13" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D42" s="12"/>
     </row>
     <row r="43" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A43" s="13" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A44" s="13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -6342,79 +6364,79 @@
     </row>
     <row r="45" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A45" s="13" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A46" s="13" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A47" s="13" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D47" s="12"/>
     </row>
     <row r="48" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A48" s="13" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="12"/>
     </row>
     <row r="49" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A49" s="13" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A50" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A51" s="13" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>

--- a/ref/Mod_Planing.xlsx
+++ b/ref/Mod_Planing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\elmods\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E73166-3B63-410D-8D0D-73890111F660}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAD1D6C-3E71-4B00-A890-44445BDAD2A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9128" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3201,161 +3201,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>◆+3 / +1d6 dmg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>◆Organ Rearranger*: Crit range -1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>◆Dolor Amarus*: Extra 7 Dmg on crit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>◆gain the proficiency of this weapon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t>◆+3 / +1d6 dmg
+◆Organ Rearranger*: Crit range -1
+◆extra 2 slash dmg while deal slashing dmg
+◆+AC while in off hand
+◆gain the proficiency of this weapon
+◆Gain Parry (Parry_Githyanki_Supreme)
+◆Give Spell: Perfectly Balanced Atk(UnlockSpell(Target_MAG_PHB_ScimitarOfSpeed_BonusAttack))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◆+3 / +1d6 dmg
+◆Organ Rearranger*: Crit range -1
+◆Dolor Amarus*: Extra 7 Dmg on crit
+◆gain the proficiency of this weapon
 ◆When you make atk with Advantage, target takes an additional 7 Slashing dmg.
 ◆Take 1d10 piercing dmg to gain sebuku status for 10 turns (also create blood surface around u): gain advantage on atk rolls &amp; extra 1d6 slash dmg, inflict bleeding DC15+proficiency bonus
 ◆Atk 4 times(參考Target_LOW_DeathbringerAssault_Orin)(per battle)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">◆+3 / +1d6 dmg
-◆Organ Rearranger*: Crit range -1
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">◆extra 2 slash dmg while dual wielding scimitar
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>◆+AC while in off hand</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>◆gain the proficiency of this weapon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-◆Gain Parry (Parry_Githyanki_Supreme)
-◆Give Spell: Perfectly Balanced Atk(UnlockSpell(Target_MAG_PHB_ScimitarOfSpeed_BonusAttack))</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5485,7 +5347,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -5811,8 +5673,8 @@
       <c r="B15" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>368</v>
+      <c r="C15" s="20" t="s">
+        <v>369</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
@@ -5832,8 +5694,8 @@
       <c r="B16" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>369</v>
+      <c r="C16" s="20" t="s">
+        <v>368</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
